--- a/data/trans_orig/P36$cafe-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36$cafe-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>429778</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>416302</v>
+        <v>414610</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>441452</v>
+        <v>440750</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.908856220497231</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8803579418774778</v>
+        <v>0.8767808357212333</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9335421507428617</v>
+        <v>0.9320590762004474</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>271</v>
@@ -764,19 +764,19 @@
         <v>278477</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>267535</v>
+        <v>267569</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>287250</v>
+        <v>287079</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9080388750239466</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8723582396791134</v>
+        <v>0.8724702552899812</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9366437178185808</v>
+        <v>0.9360878840450784</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>683</v>
@@ -785,19 +785,19 @@
         <v>708256</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>690361</v>
+        <v>688937</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>722946</v>
+        <v>722383</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9085346747780246</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8855783744662276</v>
+        <v>0.8837516479881646</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9273787063920598</v>
+        <v>0.9266564810766933</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>64302</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49575</v>
+        <v>49027</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>80419</v>
+        <v>80047</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1359809213920634</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1048362213532466</v>
+        <v>0.1036770793562266</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1700626176448741</v>
+        <v>0.1692771631847262</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>52</v>
@@ -835,19 +835,19 @@
         <v>53765</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>40429</v>
+        <v>41810</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>67708</v>
+        <v>67621</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1753133033259364</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1318290383561369</v>
+        <v>0.1363300615829671</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2207770256944415</v>
+        <v>0.2204924853996653</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>110</v>
@@ -856,19 +856,19 @@
         <v>118068</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>99059</v>
+        <v>99238</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>138524</v>
+        <v>139599</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1514543771710579</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1270711593581852</v>
+        <v>0.1273004902528849</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1776952074617897</v>
+        <v>0.1790744360467945</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>14827</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8091</v>
+        <v>7567</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25850</v>
+        <v>24533</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03135437172038436</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01711109238986496</v>
+        <v>0.01600102100258949</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05466474113597054</v>
+        <v>0.05188076194686972</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -906,19 +906,19 @@
         <v>4396</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1142</v>
+        <v>1046</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10733</v>
+        <v>11141</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01433368747185901</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003724299276281853</v>
+        <v>0.003409778106243349</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03499883486315458</v>
+        <v>0.03632638175329841</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>17</v>
@@ -927,19 +927,19 @@
         <v>19223</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11504</v>
+        <v>10512</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>30204</v>
+        <v>30352</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02465839267974117</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01475748191136551</v>
+        <v>0.01348403342874199</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03874533586194809</v>
+        <v>0.03893481359160455</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>5261</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1886</v>
+        <v>1827</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10507</v>
+        <v>11002</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01112601712415865</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003988870244046386</v>
+        <v>0.00386382368521136</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02221933836762716</v>
+        <v>0.02326606210526051</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -977,19 +977,19 @@
         <v>3540</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9796</v>
+        <v>9721</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01154411362536644</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003732489194589917</v>
+        <v>0.003724261810408999</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03194325772724331</v>
+        <v>0.03169720897567738</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -998,19 +998,19 @@
         <v>8802</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3679</v>
+        <v>3874</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15108</v>
+        <v>16749</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01129049731591687</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004719891085293618</v>
+        <v>0.004968861375654139</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01938001251341126</v>
+        <v>0.0214850061015782</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>5224</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1920</v>
+        <v>1761</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13023</v>
+        <v>10921</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01104790340965955</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.00406051297934387</v>
+        <v>0.003723730571693461</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02754018490208636</v>
+        <v>0.02309398696606062</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1048,19 +1048,19 @@
         <v>3065</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>892</v>
+        <v>907</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8005</v>
+        <v>8682</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.009994344495203871</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.002909834299908339</v>
+        <v>0.002957380450079536</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02610103949272816</v>
+        <v>0.02831115298129979</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -1069,19 +1069,19 @@
         <v>8289</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3777</v>
+        <v>3894</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>16162</v>
+        <v>17922</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01063343074180019</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004845574206188775</v>
+        <v>0.004995757066496694</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02073168881998471</v>
+        <v>0.02298969007709784</v>
       </c>
     </row>
     <row r="9">
@@ -1098,19 +1098,19 @@
         <v>358508</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>337985</v>
+        <v>338322</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>376250</v>
+        <v>375898</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7581405602191686</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7147396823931528</v>
+        <v>0.7154524069327555</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7956593612655739</v>
+        <v>0.7949150699699494</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>218</v>
@@ -1119,19 +1119,19 @@
         <v>223949</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>207851</v>
+        <v>206196</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>239810</v>
+        <v>237701</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7302353200892773</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6777447112771844</v>
+        <v>0.6723487826384085</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7819563531705539</v>
+        <v>0.7750774491622732</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>562</v>
@@ -1140,19 +1140,19 @@
         <v>582457</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>557134</v>
+        <v>556905</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>604787</v>
+        <v>605679</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.747162570127492</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.7146785134605227</v>
+        <v>0.71438528326928</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7758060170849498</v>
+        <v>0.7769511390321153</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>324890</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>310403</v>
+        <v>311032</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>336910</v>
+        <v>336401</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8897107576573182</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8500381512753653</v>
+        <v>0.8517604082521335</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9226259690972076</v>
+        <v>0.9212339446695201</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>324</v>
@@ -1194,19 +1194,19 @@
         <v>331874</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>320226</v>
+        <v>318376</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>343098</v>
+        <v>342411</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8950418363615328</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8636268654359845</v>
+        <v>0.8586389411594488</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.925310782169103</v>
+        <v>0.9234586618776953</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>634</v>
@@ -1215,19 +1215,19 @@
         <v>656765</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>638878</v>
+        <v>639121</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>671716</v>
+        <v>674379</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8923966784501564</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8680925114314509</v>
+        <v>0.8684227174537165</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9127125505814482</v>
+        <v>0.9163301123314784</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>32265</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>22384</v>
+        <v>22004</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45771</v>
+        <v>44590</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08835623485516679</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06129853745536048</v>
+        <v>0.06025922505558912</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1253425541851197</v>
+        <v>0.1221103668701652</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>44</v>
@@ -1265,19 +1265,19 @@
         <v>46473</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>33868</v>
+        <v>34683</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>60707</v>
+        <v>62647</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1253345067865848</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09133977244400429</v>
+        <v>0.0935378313403033</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1637232763814824</v>
+        <v>0.1689542512990941</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>74</v>
@@ -1286,19 +1286,19 @@
         <v>78738</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>62366</v>
+        <v>63021</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>95639</v>
+        <v>96539</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1069867437961244</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08474179984261257</v>
+        <v>0.08563163742422379</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1299519365391968</v>
+        <v>0.131175038832753</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>6809</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2696</v>
+        <v>2931</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14451</v>
+        <v>14911</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01864540205977931</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007384120285119676</v>
+        <v>0.008025933912100091</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03957395404852133</v>
+        <v>0.04083378478148524</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -1336,19 +1336,19 @@
         <v>11313</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5923</v>
+        <v>5680</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>21091</v>
+        <v>19998</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03051140800502065</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01597515559096796</v>
+        <v>0.01531732047683455</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05687998517644452</v>
+        <v>0.05393243951203442</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>16</v>
@@ -1357,19 +1357,19 @@
         <v>18122</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10467</v>
+        <v>10698</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>29991</v>
+        <v>29256</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02462377039095181</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01422196432215206</v>
+        <v>0.01453632404409711</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04075054132132092</v>
+        <v>0.03975210294521402</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>8507</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3736</v>
+        <v>3869</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16143</v>
+        <v>15871</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02329617910698161</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01023112285268912</v>
+        <v>0.01059403573054115</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0442085563722178</v>
+        <v>0.0434633086940758</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1407,19 +1407,19 @@
         <v>5810</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2031</v>
+        <v>2041</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11627</v>
+        <v>11617</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01566890573826311</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005476901142668367</v>
+        <v>0.005504472648874439</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03135852847919358</v>
+        <v>0.03133023086275869</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -1428,19 +1428,19 @@
         <v>14317</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8490</v>
+        <v>7704</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24609</v>
+        <v>22389</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01945338231662364</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01153561418420081</v>
+        <v>0.01046834462610777</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03343749263468151</v>
+        <v>0.03042154758212443</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>9579</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4462</v>
+        <v>4360</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17248</v>
+        <v>17790</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02623144625952338</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01221995705786897</v>
+        <v>0.01193947897407151</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04723374510492745</v>
+        <v>0.04871881162019604</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -1478,19 +1478,19 @@
         <v>5660</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2108</v>
+        <v>2276</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11924</v>
+        <v>11584</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0152646798123534</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005684694489757259</v>
+        <v>0.006138364778286564</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03215877426479639</v>
+        <v>0.03124060356685806</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -1499,19 +1499,19 @@
         <v>15239</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8856</v>
+        <v>9152</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>25393</v>
+        <v>25295</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0207061355925909</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01203299297765776</v>
+        <v>0.01243543498905609</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03450361539799178</v>
+        <v>0.03437050237383634</v>
       </c>
     </row>
     <row r="15">
@@ -1528,19 +1528,19 @@
         <v>273430</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>254476</v>
+        <v>257206</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>289830</v>
+        <v>289717</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.7487866325451</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6968823907175545</v>
+        <v>0.7043587934835637</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7936974087580794</v>
+        <v>0.7933873945862361</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>273</v>
@@ -1549,19 +1549,19 @@
         <v>278495</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>261780</v>
+        <v>260760</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>293997</v>
+        <v>295187</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.7510821680218551</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.706003397977181</v>
+        <v>0.7032519362571604</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7928904816792269</v>
+        <v>0.7960974567677664</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>530</v>
@@ -1570,19 +1570,19 @@
         <v>551925</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>525875</v>
+        <v>525556</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>576484</v>
+        <v>573401</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.7499431764285809</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.7145465904477452</v>
+        <v>0.7141128914381442</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.7833131559080722</v>
+        <v>0.7791243530054749</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>490767</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>475435</v>
+        <v>475172</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>503133</v>
+        <v>502931</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9082012902250531</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8798281135639825</v>
+        <v>0.8793409045713523</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9310842421015958</v>
+        <v>0.9307115272233981</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>146</v>
@@ -1624,19 +1624,19 @@
         <v>149891</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>139774</v>
+        <v>139917</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>156163</v>
+        <v>156835</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8933652346762304</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.833068418052858</v>
+        <v>0.833919374488196</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9307464712856343</v>
+        <v>0.9347573394488549</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>629</v>
@@ -1645,19 +1645,19 @@
         <v>640658</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>622788</v>
+        <v>622465</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>655671</v>
+        <v>655153</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.904686208825472</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8794511825131263</v>
+        <v>0.8789952209616392</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9258856663346176</v>
+        <v>0.9251547214807937</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>47414</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>36137</v>
+        <v>35441</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>62937</v>
+        <v>63396</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08774318009559848</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06687404191509029</v>
+        <v>0.06558596013175959</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1164690055701003</v>
+        <v>0.1173193557558879</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -1695,19 +1695,19 @@
         <v>17592</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10619</v>
+        <v>10738</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27281</v>
+        <v>26835</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1048525140331751</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06328798866461735</v>
+        <v>0.06399854137647321</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1625976827840899</v>
+        <v>0.1599422123461617</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>62</v>
@@ -1716,19 +1716,19 @@
         <v>65006</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>51139</v>
+        <v>50231</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>82656</v>
+        <v>82104</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09179686547614224</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07221436462251413</v>
+        <v>0.07093204834495703</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1167205028819132</v>
+        <v>0.1159412556320082</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>16952</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9352</v>
+        <v>10014</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26555</v>
+        <v>26504</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03137044259661552</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01730565983375225</v>
+        <v>0.01853090107309325</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04914283391474588</v>
+        <v>0.04904695797638615</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -1766,19 +1766,19 @@
         <v>6458</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2270</v>
+        <v>3079</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12942</v>
+        <v>13012</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0384916135078051</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01352866780009832</v>
+        <v>0.01834959216128408</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07713617651722487</v>
+        <v>0.07755181354023068</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>22</v>
@@ -1787,19 +1787,19 @@
         <v>23410</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>15278</v>
+        <v>14839</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>34543</v>
+        <v>33360</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03305764950486595</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0215738924959599</v>
+        <v>0.02095472914142511</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04877878386543898</v>
+        <v>0.04710872960498666</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>13166</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7204</v>
+        <v>6706</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21765</v>
+        <v>21627</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02436437871211069</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0133312919573942</v>
+        <v>0.01240997559044488</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04027845266882632</v>
+        <v>0.04002146186060967</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1837,19 +1837,19 @@
         <v>4065</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9575</v>
+        <v>9587</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02422597042299951</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.006125017385359231</v>
+        <v>0.006056399393022658</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05706893806908723</v>
+        <v>0.05713752332212402</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -1858,19 +1858,19 @@
         <v>17231</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9905</v>
+        <v>10427</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26659</v>
+        <v>27262</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02433158587165512</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01398747909358675</v>
+        <v>0.01472473963368068</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03764618389151847</v>
+        <v>0.03849792159682244</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>9830</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4973</v>
+        <v>4667</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17881</v>
+        <v>17057</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01819189671068631</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.009202915047196648</v>
+        <v>0.008637364865876129</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03309029714893762</v>
+        <v>0.03156465313058707</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6630</v>
+        <v>5802</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01094365506607585</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03951344409650089</v>
+        <v>0.03458287050441972</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -1929,19 +1929,19 @@
         <v>11667</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5699</v>
+        <v>6407</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>19525</v>
+        <v>20048</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01647458314976066</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008047519998867395</v>
+        <v>0.009047483285226495</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02757168636530323</v>
+        <v>0.02831032889886978</v>
       </c>
     </row>
     <row r="21">
@@ -1958,19 +1958,19 @@
         <v>391701</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>371969</v>
+        <v>368860</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>413172</v>
+        <v>411678</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.724870964594628</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6883559133301359</v>
+        <v>0.6826025964659408</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7646048254194557</v>
+        <v>0.7618398144436895</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>124</v>
@@ -1979,19 +1979,19 @@
         <v>126348</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>113222</v>
+        <v>115608</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>136542</v>
+        <v>137743</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7530476612859248</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6748185380158814</v>
+        <v>0.6890361903352556</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8138087071410902</v>
+        <v>0.8209624493420528</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>508</v>
@@ -2000,19 +2000,19 @@
         <v>518049</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>491294</v>
+        <v>493888</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>539893</v>
+        <v>542340</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.7315468214027454</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6937665261019972</v>
+        <v>0.6974293793965431</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7623931353501148</v>
+        <v>0.7658496367430285</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>1146359</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1128000</v>
+        <v>1127738</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1162251</v>
+        <v>1161929</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9272564312248038</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9124064340008811</v>
+        <v>0.9121944070132301</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9401115799828834</v>
+        <v>0.9398510864925719</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>629</v>
@@ -2054,19 +2054,19 @@
         <v>646027</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>627694</v>
+        <v>628169</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>661116</v>
+        <v>660165</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9056750433986686</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8799741624420612</v>
+        <v>0.8806390124258798</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9268287046503987</v>
+        <v>0.9254954059355679</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1761</v>
@@ -2075,19 +2075,19 @@
         <v>1792386</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1764338</v>
+        <v>1766192</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1815896</v>
+        <v>1814969</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9193603468305209</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9049740810532166</v>
+        <v>0.9059250647219962</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9314193030161219</v>
+        <v>0.9309436201960357</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>69706</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>53763</v>
+        <v>53617</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>88068</v>
+        <v>87755</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0563829010377465</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04348733419506934</v>
+        <v>0.04336928099507163</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07123600861629355</v>
+        <v>0.07098265223953558</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>68</v>
@@ -2125,19 +2125,19 @@
         <v>71533</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>56897</v>
+        <v>56484</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>89970</v>
+        <v>88165</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1002827282026599</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07976472010005388</v>
+        <v>0.07918590231507812</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.126130892256757</v>
+        <v>0.1235993299565579</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>135</v>
@@ -2146,19 +2146,19 @@
         <v>141238</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>120853</v>
+        <v>121654</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>168239</v>
+        <v>166948</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07244473834780156</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06198852853274286</v>
+        <v>0.06239962867163133</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08629387682954284</v>
+        <v>0.08563200217269666</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>43046</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>31934</v>
+        <v>30688</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>58008</v>
+        <v>58354</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0348183686678999</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02583044818091471</v>
+        <v>0.02482229462851029</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04692103229553397</v>
+        <v>0.04720110937485349</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>16</v>
@@ -2196,19 +2196,19 @@
         <v>15642</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9619</v>
+        <v>9360</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>25360</v>
+        <v>25054</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02192822954378441</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01348562446976914</v>
+        <v>0.01312168988454241</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03555207960557573</v>
+        <v>0.03512397892677637</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>57</v>
@@ -2217,19 +2217,19 @@
         <v>58687</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>44774</v>
+        <v>45067</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>74851</v>
+        <v>75823</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03010219252584453</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02296575504846161</v>
+        <v>0.02311618392113809</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03839279807180672</v>
+        <v>0.03889175366574046</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>24654</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16368</v>
+        <v>16514</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37117</v>
+        <v>35980</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0199422894090224</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0132399427934216</v>
+        <v>0.01335767254889523</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03002262506531164</v>
+        <v>0.02910288276622447</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -2267,19 +2267,19 @@
         <v>12978</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6732</v>
+        <v>6802</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22646</v>
+        <v>23424</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01819423478869057</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.009437045756303336</v>
+        <v>0.009536015362097132</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03174837188083358</v>
+        <v>0.03283781828172296</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>36</v>
@@ -2288,19 +2288,19 @@
         <v>37633</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>25825</v>
+        <v>26156</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>52176</v>
+        <v>51340</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01930272040080316</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01324631014406816</v>
+        <v>0.01341591218408582</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02676235966114963</v>
+        <v>0.02633370347809869</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>25178</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>16248</v>
+        <v>17032</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>36334</v>
+        <v>37679</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02036549595365043</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01314284135771326</v>
+        <v>0.0137770157408876</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02938937399676386</v>
+        <v>0.03047736049399675</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -2338,19 +2338,19 @@
         <v>14220</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8135</v>
+        <v>8072</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>22682</v>
+        <v>24500</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01993515149206858</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01140406522503023</v>
+        <v>0.01131652513124931</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03179866553611962</v>
+        <v>0.03434758697079211</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>38</v>
@@ -2359,19 +2359,19 @@
         <v>39398</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>28323</v>
+        <v>28476</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>54733</v>
+        <v>53624</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02020804379095182</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01452746492927851</v>
+        <v>0.01460627429379811</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02807382263121148</v>
+        <v>0.02750536834465368</v>
       </c>
     </row>
     <row r="27">
@@ -2388,19 +2388,19 @@
         <v>958896</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>929889</v>
+        <v>929132</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>988543</v>
+        <v>987271</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7756234480836263</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7521606251896176</v>
+        <v>0.7515479782359646</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7996039702372875</v>
+        <v>0.7985751967124445</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>537</v>
@@ -2409,19 +2409,19 @@
         <v>551325</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>526404</v>
+        <v>528053</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>573376</v>
+        <v>573869</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7729103491475581</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7379738499995255</v>
+        <v>0.7402858968381276</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8038243885362838</v>
+        <v>0.8045161169979272</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1487</v>
@@ -2430,19 +2430,19 @@
         <v>1510221</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1467429</v>
+        <v>1471150</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1544219</v>
+        <v>1546135</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.7746307937491682</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7526817339574237</v>
+        <v>0.7545905023435205</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7920690823788898</v>
+        <v>0.7930519718612986</v>
       </c>
     </row>
     <row r="28">
@@ -2463,19 +2463,19 @@
         <v>317612</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>304258</v>
+        <v>305194</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>327742</v>
+        <v>327248</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.906025994097536</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8679314380373336</v>
+        <v>0.8706029610713195</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9349227438004001</v>
+        <v>0.933514602431767</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>504</v>
@@ -2484,19 +2484,19 @@
         <v>533617</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>520617</v>
+        <v>520004</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>543946</v>
+        <v>543011</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9414934026626615</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9185569795280698</v>
+        <v>0.917475214526309</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9597172416574274</v>
+        <v>0.9580683354848185</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>812</v>
@@ -2505,19 +2505,19 @@
         <v>851229</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>834164</v>
+        <v>833523</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>865389</v>
+        <v>866741</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9279396622474392</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9093370743511009</v>
+        <v>0.9086377840831588</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9433758491938019</v>
+        <v>0.9448500739354039</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>23601</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>15507</v>
+        <v>14697</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>35096</v>
+        <v>34946</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0673250540463792</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04423580902857221</v>
+        <v>0.04192503188987153</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1001146444287571</v>
+        <v>0.0996870446737303</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>40</v>
@@ -2555,19 +2555,19 @@
         <v>43501</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>32076</v>
+        <v>31116</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>59962</v>
+        <v>57586</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07675212187665154</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05659386282272997</v>
+        <v>0.05489928349284608</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1057949035725449</v>
+        <v>0.1016034350439223</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>62</v>
@@ -2576,19 +2576,19 @@
         <v>67102</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>53208</v>
+        <v>52552</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>85367</v>
+        <v>86132</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07314960239701183</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05800295295659993</v>
+        <v>0.05728772229428208</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09305962651733013</v>
+        <v>0.09389425922101152</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>23985</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>15531</v>
+        <v>14556</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>35718</v>
+        <v>36125</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.06841931883582583</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04430368789291449</v>
+        <v>0.0415226562893116</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1018908551677392</v>
+        <v>0.1030522393171519</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>9</v>
@@ -2626,19 +2626,19 @@
         <v>11005</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5589</v>
+        <v>5314</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>20926</v>
+        <v>20532</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0194165665250621</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.009861229489577948</v>
+        <v>0.009375232592852799</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03692105711887078</v>
+        <v>0.03622669024798908</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>30</v>
@@ -2647,19 +2647,19 @@
         <v>34990</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>24141</v>
+        <v>23869</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>48902</v>
+        <v>49470</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03814278902964611</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02631611008880999</v>
+        <v>0.02602056272986729</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05330923145812069</v>
+        <v>0.05392763798869889</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>13000</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6706</v>
+        <v>7387</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>21079</v>
+        <v>21408</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03708312325116701</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01912832417883777</v>
+        <v>0.02107364283777273</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06012979174587724</v>
+        <v>0.06106950221425735</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>9</v>
@@ -2697,19 +2697,19 @@
         <v>9434</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4494</v>
+        <v>4376</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>17116</v>
+        <v>17333</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01664578688172464</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.007928475528342773</v>
+        <v>0.00772097677364605</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03019930835278097</v>
+        <v>0.03058180962857691</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>22</v>
@@ -2718,19 +2718,19 @@
         <v>22434</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>14293</v>
+        <v>14180</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>33951</v>
+        <v>32987</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0244558401993041</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01558129311555168</v>
+        <v>0.01545825964909702</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03701054840974043</v>
+        <v>0.03595951894367208</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>6513</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2734</v>
+        <v>2805</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>14861</v>
+        <v>14574</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01857955668653503</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007800327826649463</v>
+        <v>0.008001778346487949</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04239265250209896</v>
+        <v>0.0415731824937787</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>6</v>
@@ -2768,19 +2768,19 @@
         <v>5511</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1955</v>
+        <v>2294</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>13212</v>
+        <v>11401</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.009723243239778434</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003448987068631708</v>
+        <v>0.004047069164509876</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02331076915221951</v>
+        <v>0.02011541828058885</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>12</v>
@@ -2789,19 +2789,19 @@
         <v>12024</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6461</v>
+        <v>6662</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>20588</v>
+        <v>20678</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01310765102003029</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.007042891049225256</v>
+        <v>0.007262582705532257</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0224438028146223</v>
+        <v>0.02254168155413503</v>
       </c>
     </row>
     <row r="33">
@@ -2818,19 +2818,19 @@
         <v>267907</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>251650</v>
+        <v>249363</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>285041</v>
+        <v>281759</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.7642368237885724</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7178624393415383</v>
+        <v>0.7113378000189282</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8131137568699971</v>
+        <v>0.8037503315986689</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>426</v>
@@ -2839,19 +2839,19 @@
         <v>453244</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>434083</v>
+        <v>434508</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>472206</v>
+        <v>473005</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.7996858319261182</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.7658801068015462</v>
+        <v>0.7666293250000427</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.8331422124107919</v>
+        <v>0.834552314189609</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>686</v>
@@ -2860,19 +2860,19 @@
         <v>721151</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>696306</v>
+        <v>695995</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>744962</v>
+        <v>747474</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.7861391231669721</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.759055941830667</v>
+        <v>0.75871682883731</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.8120962962332609</v>
+        <v>0.8148349330054071</v>
       </c>
     </row>
     <row r="34">
@@ -2893,19 +2893,19 @@
         <v>275896</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>265854</v>
+        <v>266046</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>283852</v>
+        <v>283677</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9252015388851443</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8915267524424524</v>
+        <v>0.892170138015181</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9518830853818576</v>
+        <v>0.9512954997014128</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1139</v>
@@ -2914,19 +2914,19 @@
         <v>1151060</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1130368</v>
+        <v>1130000</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1167788</v>
+        <v>1169364</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9217621084110929</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9051920317329106</v>
+        <v>0.9048976239840671</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9351577110989626</v>
+        <v>0.9364198036563097</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1422</v>
@@ -2935,19 +2935,19 @@
         <v>1426955</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1403997</v>
+        <v>1406144</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1445496</v>
+        <v>1445898</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9224251118534981</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9075846621717093</v>
+        <v>0.9089722793489057</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9344107471315598</v>
+        <v>0.9346705653534444</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>26422</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>17424</v>
+        <v>17553</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>36367</v>
+        <v>37454</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.08860406062576386</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05842884265098477</v>
+        <v>0.05886390897876342</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1219555952684373</v>
+        <v>0.125598835925044</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>126</v>
@@ -2985,19 +2985,19 @@
         <v>126423</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>107223</v>
+        <v>106075</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>149221</v>
+        <v>146958</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1012389538065091</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0858639002943377</v>
+        <v>0.08494422233079063</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1194952958027811</v>
+        <v>0.1176828488078329</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>153</v>
@@ -3006,19 +3006,19 @@
         <v>152845</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>130926</v>
+        <v>130010</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>176423</v>
+        <v>176596</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.09880338264539509</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08463416864599485</v>
+        <v>0.08404255224355436</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1140450562692005</v>
+        <v>0.1141566040433649</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>12374</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6850</v>
+        <v>6661</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>20491</v>
+        <v>20581</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04149608759999197</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02296945335026096</v>
+        <v>0.02233594234090315</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06871480401557434</v>
+        <v>0.06901605151984004</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>22</v>
@@ -3056,19 +3056,19 @@
         <v>21844</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>14105</v>
+        <v>14167</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>31982</v>
+        <v>32935</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01749267771111574</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01129489446776702</v>
+        <v>0.01134457711998912</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02561086649645283</v>
+        <v>0.02637418955687997</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>35</v>
@@ -3077,19 +3077,19 @@
         <v>34218</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>24517</v>
+        <v>24219</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>46811</v>
+        <v>49174</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02211970637352166</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01584819717449694</v>
+        <v>0.01565618367884743</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03026003843521278</v>
+        <v>0.03178771034487437</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>2953</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>895</v>
+        <v>911</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>7664</v>
+        <v>7113</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.009904058296443844</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.003000183935214011</v>
+        <v>0.00305417418943945</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02570021026961743</v>
+        <v>0.02385450424329</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>18</v>
@@ -3127,19 +3127,19 @@
         <v>17723</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>10582</v>
+        <v>11186</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>26357</v>
+        <v>28145</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01419215146657972</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.00847377735380247</v>
+        <v>0.008957427684324093</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02110624658600337</v>
+        <v>0.02253866135823073</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>21</v>
@@ -3148,19 +3148,19 @@
         <v>20676</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>12737</v>
+        <v>12711</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>31693</v>
+        <v>30556</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01336555515809104</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.008233784416415545</v>
+        <v>0.008216860964757747</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02048735853436416</v>
+        <v>0.01975254760803539</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>3031</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>8708</v>
+        <v>7880</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01016518554043319</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.003281853376802331</v>
+        <v>0.00330319871405415</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02920079344603573</v>
+        <v>0.02642406629679483</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>26</v>
@@ -3198,19 +3198,19 @@
         <v>25238</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>17489</v>
+        <v>16294</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>37214</v>
+        <v>35672</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02021084173830993</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01400525904748834</v>
+        <v>0.01304846822141077</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.02980071505615308</v>
+        <v>0.02856567434589808</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>29</v>
@@ -3219,19 +3219,19 @@
         <v>28270</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>19893</v>
+        <v>19279</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>39696</v>
+        <v>39407</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01827438606907637</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.0128593962177977</v>
+        <v>0.01246273614257614</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.02566070606120089</v>
+        <v>0.02547405489469681</v>
       </c>
     </row>
     <row r="39">
@@ -3248,19 +3248,19 @@
         <v>244096</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>230346</v>
+        <v>230010</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>256619</v>
+        <v>255645</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.8185617417992664</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.7724507785913571</v>
+        <v>0.7713267088614977</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.8605584139891868</v>
+        <v>0.8572920644843605</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>994</v>
@@ -3269,19 +3269,19 @@
         <v>1002574</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>973008</v>
+        <v>973097</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>1029871</v>
+        <v>1028732</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.8028554814991635</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.7791796458541638</v>
+        <v>0.7792504855578646</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.8247148088852237</v>
+        <v>0.8238025842714477</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1244</v>
@@ -3290,19 +3290,19 @@
         <v>1246669</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1216754</v>
+        <v>1212783</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1275781</v>
+        <v>1277004</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.8058831061959972</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.7865452592549761</v>
+        <v>0.7839782813187253</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.8247019255039294</v>
+        <v>0.8254928875539111</v>
       </c>
     </row>
     <row r="40">
@@ -3323,19 +3323,19 @@
         <v>2985304</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2952098</v>
+        <v>2949647</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>3017036</v>
+        <v>3015950</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.914765558130618</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.9045904876098668</v>
+        <v>0.9038394845789317</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.92448909687971</v>
+        <v>0.9241563099778466</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>3013</v>
@@ -3344,19 +3344,19 @@
         <v>3090946</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>3058165</v>
+        <v>3057768</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>3123043</v>
+        <v>3121999</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.9160798247501049</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.9063643714857569</v>
+        <v>0.9062466337116968</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.9255926083589358</v>
+        <v>0.9252831876246868</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>5941</v>
@@ -3365,19 +3365,19 @@
         <v>6076249</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>6026541</v>
+        <v>6027259</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>6117441</v>
+        <v>6121954</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.9154336448209968</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.9079447418338331</v>
+        <v>0.9080527899556634</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.9216394282560588</v>
+        <v>0.9223193982520711</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>263710</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>233325</v>
+        <v>229305</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>296412</v>
+        <v>295228</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.08080669906062479</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0714961288718363</v>
+        <v>0.07026430316310027</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.09082744219167797</v>
+        <v>0.09046477379467266</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>347</v>
@@ -3415,19 +3415,19 @@
         <v>359288</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>326881</v>
+        <v>324572</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>397403</v>
+        <v>399785</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1064839681827324</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.09687938527912163</v>
+        <v>0.09619504151850961</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1177803463824031</v>
+        <v>0.1184864985237178</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>596</v>
@@ -3436,19 +3436,19 @@
         <v>622997</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>576410</v>
+        <v>575823</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>675490</v>
+        <v>672320</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.09385933350435169</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.08684052788747418</v>
+        <v>0.08675220150459997</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1017677708526467</v>
+        <v>0.1012901049104294</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>117992</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>97174</v>
+        <v>97116</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>140943</v>
+        <v>142658</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.03615537802074338</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.02977636827111301</v>
+        <v>0.02975843081893506</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.04318825875941745</v>
+        <v>0.04371376090921177</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>67</v>
@@ -3486,19 +3486,19 @@
         <v>70658</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>56499</v>
+        <v>54133</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>87648</v>
+        <v>87924</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02094130570511332</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01674495179205986</v>
+        <v>0.01604368882936402</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.02597657957353073</v>
+        <v>0.0260586175696034</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>177</v>
@@ -3507,19 +3507,19 @@
         <v>188650</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>163857</v>
+        <v>161972</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>220013</v>
+        <v>217089</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.02842154451251535</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02468635672226647</v>
+        <v>0.02440225777544793</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03314664453485704</v>
+        <v>0.03270606073195998</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>67542</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>53232</v>
+        <v>54883</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>85447</v>
+        <v>86339</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02069629719350171</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01631160232169407</v>
+        <v>0.016817394692803</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.02618283512065504</v>
+        <v>0.02645613245491662</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>52</v>
@@ -3557,19 +3557,19 @@
         <v>53550</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>40075</v>
+        <v>39340</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>68720</v>
+        <v>69805</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.0158709248686157</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01187718427695356</v>
+        <v>0.01165925639973255</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02036696221923196</v>
+        <v>0.02068859123302715</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>120</v>
@@ -3578,19 +3578,19 @@
         <v>121092</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>98677</v>
+        <v>100301</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>141086</v>
+        <v>144060</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01824339534042319</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01486642080677031</v>
+        <v>0.01511116087947242</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02125573564889797</v>
+        <v>0.02170371977045509</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>59356</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>44961</v>
+        <v>45869</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>77149</v>
+        <v>77462</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01818792687087285</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01377715048359457</v>
+        <v>0.01405526928659913</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02364011828574411</v>
+        <v>0.02373608815299167</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>57</v>
@@ -3628,19 +3628,19 @@
         <v>55531</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>42370</v>
+        <v>42458</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>72858</v>
+        <v>70150</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01645788751317772</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01255740535018088</v>
+        <v>0.01258340662527418</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02159334759236844</v>
+        <v>0.02079062974025117</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>114</v>
@@ -3649,19 +3649,19 @@
         <v>114886</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>96269</v>
+        <v>95503</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>138610</v>
+        <v>135477</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01730848867197917</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0145036947594352</v>
+        <v>0.01438830187412453</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02088265931005437</v>
+        <v>0.02041069683530591</v>
       </c>
     </row>
     <row r="45">
@@ -3678,19 +3678,19 @@
         <v>2494539</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>2442242</v>
+        <v>2446577</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>2541212</v>
+        <v>2544824</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.764383906992238</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.7483591631804638</v>
+        <v>0.7496874035574406</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.7786857004476812</v>
+        <v>0.7797925513103839</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>2572</v>
@@ -3699,19 +3699,19 @@
         <v>2635934</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>2586432</v>
+        <v>2585667</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>2683736</v>
+        <v>2685088</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.7812254855473183</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.7665544700069556</v>
+        <v>0.7663277813446859</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.7953930446919528</v>
+        <v>0.7957937002888111</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>5017</v>
@@ -3720,19 +3720,19 @@
         <v>5130472</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>5066598</v>
+        <v>5057245</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>5199736</v>
+        <v>5198217</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.7729450576071804</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.7633218450978047</v>
+        <v>0.7619127875404265</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.7833802179974196</v>
+        <v>0.7831512731800784</v>
       </c>
     </row>
     <row r="46">
@@ -3995,19 +3995,19 @@
         <v>394923</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>379357</v>
+        <v>379046</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>406313</v>
+        <v>407328</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.903278612610568</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8676738498744251</v>
+        <v>0.8669638739604515</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9293287805227078</v>
+        <v>0.9316508736258734</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>265</v>
@@ -4016,19 +4016,19 @@
         <v>294747</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>284866</v>
+        <v>284650</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>302071</v>
+        <v>302478</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9408021560728342</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9092647964649108</v>
+        <v>0.9085755663238705</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9641791295453819</v>
+        <v>0.9654809363370803</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>632</v>
@@ -4037,19 +4037,19 @@
         <v>689670</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>671638</v>
+        <v>669380</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>703845</v>
+        <v>703825</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9189425879108828</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8949160610877459</v>
+        <v>0.891907847718131</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9378300304330098</v>
+        <v>0.9378029231118972</v>
       </c>
     </row>
     <row r="5">
@@ -4066,19 +4066,19 @@
         <v>69662</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>54294</v>
+        <v>55021</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>89079</v>
+        <v>86785</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1593324430293533</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1241833945823999</v>
+        <v>0.1258448811375216</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2037441648904821</v>
+        <v>0.1984972963914888</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>48</v>
@@ -4087,19 +4087,19 @@
         <v>56735</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43165</v>
+        <v>42950</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>74302</v>
+        <v>73239</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1810933695392646</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1377789220422675</v>
+        <v>0.1370917470186176</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2371637992606316</v>
+        <v>0.2337714936555154</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>112</v>
@@ -4108,19 +4108,19 @@
         <v>126397</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>105991</v>
+        <v>105236</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>150343</v>
+        <v>148215</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1684164096250451</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1412266194294409</v>
+        <v>0.140220149278276</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2003224818859428</v>
+        <v>0.1974875096531533</v>
       </c>
     </row>
     <row r="6">
@@ -4137,19 +4137,19 @@
         <v>15573</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9716</v>
+        <v>8888</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25449</v>
+        <v>24564</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0356178578623426</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02222345698873087</v>
+        <v>0.02032886032718557</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05820866411997658</v>
+        <v>0.0561843288938127</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -4158,19 +4158,19 @@
         <v>7036</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2877</v>
+        <v>2953</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14859</v>
+        <v>14724</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02245943457818693</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.009182448736156078</v>
+        <v>0.009425120445551615</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04742747468592261</v>
+        <v>0.04699662496072003</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>22</v>
@@ -4179,19 +4179,19 @@
         <v>22609</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14637</v>
+        <v>13617</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>35324</v>
+        <v>34140</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03012495398663668</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01950280529523269</v>
+        <v>0.01814370995533011</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04706715836686187</v>
+        <v>0.04548922933444025</v>
       </c>
     </row>
     <row r="7">
@@ -4208,19 +4208,19 @@
         <v>17178</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9158</v>
+        <v>9591</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29697</v>
+        <v>29216</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03928895770516368</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02094735035800784</v>
+        <v>0.02193689394217673</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06792262288097915</v>
+        <v>0.06682466768535254</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -4229,19 +4229,19 @@
         <v>3034</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8294</v>
+        <v>8122</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009685061508115</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003114897858525002</v>
+        <v>0.003101804213946063</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02647359051964499</v>
+        <v>0.0259259063649968</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -4250,19 +4250,19 @@
         <v>20212</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11647</v>
+        <v>11437</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34511</v>
+        <v>32477</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02693099105177534</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01551835438556342</v>
+        <v>0.01523898694785974</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04598360354486975</v>
+        <v>0.04327334324412374</v>
       </c>
     </row>
     <row r="8">
@@ -4279,19 +4279,19 @@
         <v>2807</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7742</v>
+        <v>7520</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.00642035782605919</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002002379098921296</v>
+        <v>0.002012057624024674</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01770849223056194</v>
+        <v>0.01719884450731462</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -4300,19 +4300,19 @@
         <v>8403</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3955</v>
+        <v>3379</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16809</v>
+        <v>16885</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02682131831732179</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01262307235966738</v>
+        <v>0.01078488033309225</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05365369246090939</v>
+        <v>0.05389603768076742</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -4321,19 +4321,19 @@
         <v>11210</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5544</v>
+        <v>5863</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>20020</v>
+        <v>20918</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01493661486769989</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.007386402009521748</v>
+        <v>0.007812240874020969</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02667596161617539</v>
+        <v>0.02787204631190811</v>
       </c>
     </row>
     <row r="9">
@@ -4350,19 +4350,19 @@
         <v>340842</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>319887</v>
+        <v>323547</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>357779</v>
+        <v>359200</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7795812885812528</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7316526065421479</v>
+        <v>0.7400247381204709</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8183204512232926</v>
+        <v>0.8215706599335899</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>232</v>
@@ -4371,19 +4371,19 @@
         <v>257059</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>240602</v>
+        <v>241720</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>269892</v>
+        <v>271491</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8205057743827288</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7679766849035108</v>
+        <v>0.7715446916768727</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8614678578791911</v>
+        <v>0.866573677206031</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>546</v>
@@ -4392,19 +4392,19 @@
         <v>597900</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>573125</v>
+        <v>574834</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>619849</v>
+        <v>620237</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.7966649666037464</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.7636530730130866</v>
+        <v>0.7659300936150067</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8259103802017765</v>
+        <v>0.8264276332105258</v>
       </c>
     </row>
     <row r="10">
@@ -4425,19 +4425,19 @@
         <v>397997</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>386045</v>
+        <v>386198</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>406121</v>
+        <v>406267</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9549593245692085</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9262793382722712</v>
+        <v>0.9266478736002133</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9744499921060917</v>
+        <v>0.9748010926608511</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>291</v>
@@ -4446,19 +4446,19 @@
         <v>322569</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>312403</v>
+        <v>312630</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>329296</v>
+        <v>329374</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9543157726116543</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9242384131449708</v>
+        <v>0.9249113006296377</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9742153671423798</v>
+        <v>0.9744481204477392</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>648</v>
@@ -4467,19 +4467,19 @@
         <v>720567</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>705444</v>
+        <v>706473</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>730697</v>
+        <v>731409</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9546711245172027</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9346355936656749</v>
+        <v>0.9359988141353254</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9680923370269644</v>
+        <v>0.9690358406145186</v>
       </c>
     </row>
     <row r="11">
@@ -4496,19 +4496,19 @@
         <v>48728</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>36283</v>
+        <v>35423</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>65123</v>
+        <v>66620</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1169187601240196</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08705889084710644</v>
+        <v>0.08499449083693891</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1562568209999597</v>
+        <v>0.1598476496950943</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>41</v>
@@ -4517,19 +4517,19 @@
         <v>43878</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>31358</v>
+        <v>32512</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>57406</v>
+        <v>59359</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1298118556676421</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09277356975656058</v>
+        <v>0.09618518292085552</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1698356686993686</v>
+        <v>0.1756130723170812</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>84</v>
@@ -4538,19 +4538,19 @@
         <v>92606</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>74470</v>
+        <v>74590</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>114032</v>
+        <v>114580</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1226926386159904</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0986639230935531</v>
+        <v>0.09882368092356152</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1510802508306616</v>
+        <v>0.1518055189306541</v>
       </c>
     </row>
     <row r="12">
@@ -4567,19 +4567,19 @@
         <v>16217</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9013</v>
+        <v>9430</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>26919</v>
+        <v>28541</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03891168499951465</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02162681387460403</v>
+        <v>0.02262636678709875</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06459061131986264</v>
+        <v>0.06848121085899415</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -4588,19 +4588,19 @@
         <v>6671</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2769</v>
+        <v>1892</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15303</v>
+        <v>14318</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01973590135642441</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.008191982812463101</v>
+        <v>0.005597846869148313</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04527451402247958</v>
+        <v>0.04235836567304899</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>20</v>
@@ -4609,19 +4609,19 @@
         <v>22888</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>14204</v>
+        <v>13622</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>36042</v>
+        <v>36335</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0303242480749283</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01881931786782585</v>
+        <v>0.01804766013188271</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04775185577647184</v>
+        <v>0.04813926614096602</v>
       </c>
     </row>
     <row r="13">
@@ -4638,19 +4638,19 @@
         <v>3749</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10682</v>
+        <v>11372</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008994844105958501</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002127630548350414</v>
+        <v>0.002145839863606426</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02563142068332228</v>
+        <v>0.02728498451650128</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -4659,19 +4659,19 @@
         <v>4833</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1772</v>
+        <v>1146</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13313</v>
+        <v>12862</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01429764001483847</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00524309413596625</v>
+        <v>0.003391740007837476</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03938691912902993</v>
+        <v>0.0380532737191023</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -4680,19 +4680,19 @@
         <v>8582</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3660</v>
+        <v>3706</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17855</v>
+        <v>17497</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01136958019179613</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004848499224583679</v>
+        <v>0.004909460061680513</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02365621382137871</v>
+        <v>0.02318147514859772</v>
       </c>
     </row>
     <row r="14">
@@ -4709,19 +4709,19 @@
         <v>3959</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1005</v>
+        <v>982</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10201</v>
+        <v>9117</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.009498453682145571</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002412251568168877</v>
+        <v>0.002356838393964818</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02447629428284544</v>
+        <v>0.02187564818621391</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10149</v>
+        <v>9653</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.008278525221911392</v>
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03002623622168388</v>
+        <v>0.02855720583820627</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -4751,19 +4751,19 @@
         <v>6757</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2778</v>
+        <v>2794</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14499</v>
+        <v>14375</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.008952136571994838</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003680594948012976</v>
+        <v>0.003701100062047479</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01921006895194296</v>
+        <v>0.01904593628095273</v>
       </c>
     </row>
     <row r="15">
@@ -4780,19 +4780,19 @@
         <v>352723</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>336102</v>
+        <v>335919</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>367912</v>
+        <v>367416</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.8463276189031813</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8064468749292253</v>
+        <v>0.8060067638840147</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8827728435338129</v>
+        <v>0.8815811361137117</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>246</v>
@@ -4801,19 +4801,19 @@
         <v>273837</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>257968</v>
+        <v>256545</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>286439</v>
+        <v>288432</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.8101416796532342</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.7631932047003313</v>
+        <v>0.7589841326688034</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8474244264180293</v>
+        <v>0.8533226918953175</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>562</v>
@@ -4822,19 +4822,19 @@
         <v>626560</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>605445</v>
+        <v>602876</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>648711</v>
+        <v>648871</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.8301225721291056</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8021476475190634</v>
+        <v>0.7987435075343364</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.8594707760761989</v>
+        <v>0.859682119398963</v>
       </c>
     </row>
     <row r="16">
@@ -4855,19 +4855,19 @@
         <v>579519</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>565499</v>
+        <v>565050</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>592458</v>
+        <v>591964</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9234764811333466</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9011342153115222</v>
+        <v>0.9004199802085756</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9440938854190114</v>
+        <v>0.943306641691928</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>226</v>
@@ -4876,19 +4876,19 @@
         <v>240583</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>231123</v>
+        <v>230457</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>248382</v>
+        <v>248184</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9248590933581045</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8884942915515102</v>
+        <v>0.8859330680995463</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9548432970632492</v>
+        <v>0.9540809020872132</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>768</v>
@@ -4897,19 +4897,19 @@
         <v>820102</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>804296</v>
+        <v>801650</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>834936</v>
+        <v>834001</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9238816520178347</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9060758625491625</v>
+        <v>0.9030943692325414</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9405930130599923</v>
+        <v>0.9395393329379753</v>
       </c>
     </row>
     <row r="17">
@@ -4926,19 +4926,19 @@
         <v>63563</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>49043</v>
+        <v>49370</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>80412</v>
+        <v>83752</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1012888522312008</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07815162916772782</v>
+        <v>0.07867141502440646</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1281388725215202</v>
+        <v>0.1334607998133973</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -4947,19 +4947,19 @@
         <v>27781</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18753</v>
+        <v>19192</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39109</v>
+        <v>38795</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1067979245699849</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07209107066590466</v>
+        <v>0.07377863976333207</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.150343848839456</v>
+        <v>0.1491384975234501</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>84</v>
@@ -4968,19 +4968,19 @@
         <v>91344</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>74748</v>
+        <v>73416</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>113213</v>
+        <v>111792</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1029032714242647</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08420749663858319</v>
+        <v>0.08270641970664928</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1275391390068471</v>
+        <v>0.1259388223320269</v>
       </c>
     </row>
     <row r="18">
@@ -4997,19 +4997,19 @@
         <v>33179</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>23135</v>
+        <v>24106</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>45790</v>
+        <v>44667</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05287121319523201</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0368662775501002</v>
+        <v>0.03841371819233163</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07296687392478057</v>
+        <v>0.07117777214147634</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -5018,19 +5018,19 @@
         <v>8118</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3735</v>
+        <v>4022</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>16035</v>
+        <v>14735</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0312070363258179</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01435895330418077</v>
+        <v>0.01546313981115517</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06164436560168152</v>
+        <v>0.05664601358180333</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>41</v>
@@ -5039,19 +5039,19 @@
         <v>41297</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>30211</v>
+        <v>29465</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>54122</v>
+        <v>54771</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04652258301049331</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03403372461906433</v>
+        <v>0.03319350918758542</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06097106131172159</v>
+        <v>0.06170159204885491</v>
       </c>
     </row>
     <row r="19">
@@ -5068,19 +5068,19 @@
         <v>12968</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7440</v>
+        <v>6690</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21105</v>
+        <v>21376</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02066495323114295</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01185584060490025</v>
+        <v>0.01066013948147775</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0336311355288112</v>
+        <v>0.03406244713791483</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -5089,19 +5089,19 @@
         <v>3321</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9156</v>
+        <v>9597</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01276709691231443</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003656854942325088</v>
+        <v>0.003624481583103989</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03519799905295092</v>
+        <v>0.03689337149489277</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -5110,19 +5110,19 @@
         <v>16289</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9606</v>
+        <v>10003</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26063</v>
+        <v>25282</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01835050716090091</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01082209164684366</v>
+        <v>0.01126859446916624</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0293610987477273</v>
+        <v>0.02848134463131829</v>
       </c>
     </row>
     <row r="20">
@@ -5139,19 +5139,19 @@
         <v>7593</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3317</v>
+        <v>3579</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14754</v>
+        <v>14745</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01209973457579007</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005286445038971301</v>
+        <v>0.005703678362480384</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02351087629583446</v>
+        <v>0.02349646216434451</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -5160,19 +5160,19 @@
         <v>3875</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10106</v>
+        <v>9610</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01489731612066929</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003771373403835567</v>
+        <v>0.003739364929592497</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03884917874674908</v>
+        <v>0.03694210550443383</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -5181,19 +5181,19 @@
         <v>11468</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6306</v>
+        <v>6368</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20574</v>
+        <v>18947</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0129195585066574</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007104268268544368</v>
+        <v>0.007174355073336942</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02317731537283539</v>
+        <v>0.02134459482693291</v>
       </c>
     </row>
     <row r="21">
@@ -5210,19 +5210,19 @@
         <v>507940</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>483512</v>
+        <v>485414</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>526823</v>
+        <v>527483</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8094130187902664</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7704872676447021</v>
+        <v>0.7735179762805863</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8395042219980127</v>
+        <v>0.8405559036420177</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>204</v>
@@ -5231,19 +5231,19 @@
         <v>218363</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>205524</v>
+        <v>204596</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>229407</v>
+        <v>228801</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.839441527707751</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.7900854929188161</v>
+        <v>0.7865167095709078</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.881896119422183</v>
+        <v>0.8795670574134932</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>681</v>
@@ -5252,19 +5252,19 @@
         <v>726303</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>701149</v>
+        <v>700688</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>749243</v>
+        <v>749028</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.8182127945336682</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.7898756978591465</v>
+        <v>0.7893560066766888</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.8440553650935764</v>
+        <v>0.8438139347047875</v>
       </c>
     </row>
     <row r="22">
@@ -5285,19 +5285,19 @@
         <v>1054302</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1033913</v>
+        <v>1032626</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1075546</v>
+        <v>1073001</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9105097466458683</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8929012217066834</v>
+        <v>0.8917897444351128</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9288563276911552</v>
+        <v>0.9266588105249607</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>653</v>
@@ -5306,19 +5306,19 @@
         <v>702714</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>685700</v>
+        <v>684166</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>715904</v>
+        <v>716909</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.918981553381758</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8967315889261065</v>
+        <v>0.8947257497017914</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9362312123649319</v>
+        <v>0.937545803687727</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1643</v>
@@ -5327,19 +5327,19 @@
         <v>1757016</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1732483</v>
+        <v>1727669</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1781177</v>
+        <v>1782315</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9138792102806617</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9011186509158448</v>
+        <v>0.898615023985342</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9264462727153753</v>
+        <v>0.9270379382730718</v>
       </c>
     </row>
     <row r="23">
@@ -5356,19 +5356,19 @@
         <v>135761</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>113536</v>
+        <v>113257</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>160823</v>
+        <v>159343</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1172451301300181</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09805138965460274</v>
+        <v>0.09780994262180018</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1388891171991033</v>
+        <v>0.13761119608539</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>78</v>
@@ -5377,19 +5377,19 @@
         <v>84385</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>68136</v>
+        <v>66961</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>103837</v>
+        <v>103296</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1103558303623104</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08910495829241326</v>
+        <v>0.08756937438070735</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1357934695119418</v>
+        <v>0.1350858456584156</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>201</v>
@@ -5398,19 +5398,19 @@
         <v>220146</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>192149</v>
+        <v>191498</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>249803</v>
+        <v>250520</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1145050717504825</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09994291653457585</v>
+        <v>0.09960401975020042</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1299302901016987</v>
+        <v>0.1303034713037244</v>
       </c>
     </row>
     <row r="24">
@@ -5427,19 +5427,19 @@
         <v>39335</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28676</v>
+        <v>28804</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>53764</v>
+        <v>52752</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03396989159718642</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02476492422102754</v>
+        <v>0.02487519280447504</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04643168711000663</v>
+        <v>0.04555768381276369</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>22</v>
@@ -5448,19 +5448,19 @@
         <v>24852</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15440</v>
+        <v>16563</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>37921</v>
+        <v>37922</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03249999628440715</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02019212809666838</v>
+        <v>0.02166057312489665</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04959176928312339</v>
+        <v>0.04959325051858938</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>61</v>
@@ -5469,19 +5469,19 @@
         <v>64186</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>49775</v>
+        <v>50395</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>80428</v>
+        <v>82514</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03338527500266696</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0258897931996351</v>
+        <v>0.02621217635307281</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04183319593955107</v>
+        <v>0.04291793547719899</v>
       </c>
     </row>
     <row r="25">
@@ -5498,19 +5498,19 @@
         <v>34277</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22689</v>
+        <v>23716</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>46855</v>
+        <v>50594</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02960165917378593</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01959458223445276</v>
+        <v>0.02048132319773133</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04046502388059325</v>
+        <v>0.04369394088715217</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -5519,19 +5519,19 @@
         <v>19750</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11899</v>
+        <v>11750</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>31604</v>
+        <v>31950</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02582845615942144</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0155610453318862</v>
+        <v>0.01536636958933999</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04133085930465934</v>
+        <v>0.04178301882831902</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>46</v>
@@ -5540,19 +5540,19 @@
         <v>54027</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>41411</v>
+        <v>39837</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>72998</v>
+        <v>72714</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02810095563557443</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02153917708387439</v>
+        <v>0.02072021823301885</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03796834554683442</v>
+        <v>0.0378207114481693</v>
       </c>
     </row>
     <row r="26">
@@ -5569,19 +5569,19 @@
         <v>15799</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7920</v>
+        <v>8308</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>26756</v>
+        <v>27424</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01364412681986431</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006840189937153781</v>
+        <v>0.007175267848056626</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0231067478930747</v>
+        <v>0.02368384311915743</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -5590,19 +5590,19 @@
         <v>9635</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4304</v>
+        <v>4757</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18397</v>
+        <v>17223</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0126008098408796</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.005628352405024632</v>
+        <v>0.00622122681409637</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02405911568617215</v>
+        <v>0.02252391678622421</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>21</v>
@@ -5611,19 +5611,19 @@
         <v>25434</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>15848</v>
+        <v>15898</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>38844</v>
+        <v>40132</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01322917181323523</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008243109844805772</v>
+        <v>0.008268906475750733</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02020422673480334</v>
+        <v>0.0208737737143741</v>
       </c>
     </row>
     <row r="27">
@@ -5640,19 +5640,19 @@
         <v>922665</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>894729</v>
+        <v>890832</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>949139</v>
+        <v>948491</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.796825963298581</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7726999440813884</v>
+        <v>0.7693347808245046</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8196896098852489</v>
+        <v>0.8191299495879736</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>588</v>
@@ -5661,19 +5661,19 @@
         <v>633130</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>611542</v>
+        <v>611381</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>654579</v>
+        <v>655316</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8279828648894526</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7997504533928866</v>
+        <v>0.7995393030806163</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8560323790760657</v>
+        <v>0.8569969433224348</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1453</v>
@@ -5682,19 +5682,19 @@
         <v>1555795</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1518263</v>
+        <v>1519590</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1591019</v>
+        <v>1590842</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8092178945779541</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7896961248392009</v>
+        <v>0.7903864242126569</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8275392157134041</v>
+        <v>0.8274467980026978</v>
       </c>
     </row>
     <row r="28">
@@ -5715,19 +5715,19 @@
         <v>468254</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>453428</v>
+        <v>455497</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>479547</v>
+        <v>480035</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9187214870350301</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8896330127962579</v>
+        <v>0.8936917573248435</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9408781226799574</v>
+        <v>0.9418353032902799</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>667</v>
@@ -5736,19 +5736,19 @@
         <v>724186</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>711346</v>
+        <v>711787</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>733741</v>
+        <v>735555</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9546960410864909</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9377688799981537</v>
+        <v>0.9383511978267156</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9672923599138127</v>
+        <v>0.9696845268829374</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1114</v>
@@ -5757,19 +5757,19 @@
         <v>1192440</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1171577</v>
+        <v>1175358</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1207453</v>
+        <v>1207049</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9402384864367535</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9237882847588176</v>
+        <v>0.926769686383327</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9520767825693562</v>
+        <v>0.9517579320374038</v>
       </c>
     </row>
     <row r="29">
@@ -5786,19 +5786,19 @@
         <v>43409</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>32465</v>
+        <v>32028</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>57823</v>
+        <v>56711</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08516935313664427</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06369703450756996</v>
+        <v>0.06283975296749655</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1134491418267716</v>
+        <v>0.1112671496671824</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>72</v>
@@ -5807,19 +5807,19 @@
         <v>78436</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>63448</v>
+        <v>62674</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>98742</v>
+        <v>97590</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1034020263343595</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08364400627504874</v>
+        <v>0.08262375018896481</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1301716169258051</v>
+        <v>0.128653234655673</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>114</v>
@@ -5828,19 +5828,19 @@
         <v>121845</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>100992</v>
+        <v>102726</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>144372</v>
+        <v>146528</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0960746285078375</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07963192358582104</v>
+        <v>0.08099925579172831</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1138372290794717</v>
+        <v>0.115537443929989</v>
       </c>
     </row>
     <row r="30">
@@ -5857,19 +5857,19 @@
         <v>27478</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>18286</v>
+        <v>18247</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>39482</v>
+        <v>39306</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05391316105482679</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0358774244333627</v>
+        <v>0.03580003581131418</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07746393476801708</v>
+        <v>0.07711897976884681</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>9</v>
@@ -5878,19 +5878,19 @@
         <v>9224</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4314</v>
+        <v>4223</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>17020</v>
+        <v>16946</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01215993488383644</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.005686822933416751</v>
+        <v>0.005567340960412503</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02243691528947474</v>
+        <v>0.02234048147736029</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>36</v>
@@ -5899,19 +5899,19 @@
         <v>36702</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>25926</v>
+        <v>26082</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>50231</v>
+        <v>49744</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0289398384875457</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0204424521898796</v>
+        <v>0.02056535634164992</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03960732189728458</v>
+        <v>0.0392228999795675</v>
       </c>
     </row>
     <row r="31">
@@ -5928,19 +5928,19 @@
         <v>13657</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7420</v>
+        <v>7132</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>24371</v>
+        <v>23625</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02679469238497746</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01455889354767081</v>
+        <v>0.0139934520100057</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04781561876558005</v>
+        <v>0.04635323566603122</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -5949,19 +5949,19 @@
         <v>5123</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1998</v>
+        <v>2032</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11271</v>
+        <v>12077</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.006753291318471935</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.002634125094998672</v>
+        <v>0.002678404591956681</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01485798794017981</v>
+        <v>0.01592055368883437</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>17</v>
@@ -5970,19 +5970,19 @@
         <v>18779</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10990</v>
+        <v>11527</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>29617</v>
+        <v>30181</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01480758577231921</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.008665872447179835</v>
+        <v>0.009088697780704957</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02335289275296186</v>
+        <v>0.02379753554622412</v>
       </c>
     </row>
     <row r="32">
@@ -5999,19 +5999,19 @@
         <v>3854</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>8785</v>
+        <v>9711</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.007561196286339089</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001893396499094814</v>
+        <v>0.00190211676407216</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01723694398415912</v>
+        <v>0.01905321205227862</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>6</v>
@@ -6020,19 +6020,19 @@
         <v>6446</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2220</v>
+        <v>2248</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>13194</v>
+        <v>13876</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.008497212961997156</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.002926507617879512</v>
+        <v>0.002963822328293556</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01739304424861077</v>
+        <v>0.01829222696326893</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>10</v>
@@ -6041,19 +6041,19 @@
         <v>10299</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5147</v>
+        <v>5226</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>18585</v>
+        <v>18456</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.008121043955925973</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.004058249341541527</v>
+        <v>0.004121001039436271</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01465421641083509</v>
+        <v>0.01455286344385795</v>
       </c>
     </row>
     <row r="33">
@@ -6070,19 +6070,19 @@
         <v>392764</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>371897</v>
+        <v>373027</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>411328</v>
+        <v>411898</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.7706095904258665</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7296682425776742</v>
+        <v>0.7318841449818213</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8070313901569548</v>
+        <v>0.8081492822542834</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>574</v>
@@ -6091,19 +6091,19 @@
         <v>626277</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>604120</v>
+        <v>604823</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>648308</v>
+        <v>647797</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.8256223171930194</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.7964131869509994</v>
+        <v>0.7973402518673937</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.8546668714301274</v>
+        <v>0.8539927626263457</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>949</v>
@@ -6112,19 +6112,19 @@
         <v>1019041</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>988680</v>
+        <v>990326</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1046098</v>
+        <v>1048615</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.8035136483119693</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.7795744574538781</v>
+        <v>0.7808717976289561</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.8248478374622087</v>
+        <v>0.8268324856844484</v>
       </c>
     </row>
     <row r="34">
@@ -6145,19 +6145,19 @@
         <v>231955</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>220424</v>
+        <v>219895</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>241630</v>
+        <v>241999</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8691310912511295</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8259245305414935</v>
+        <v>0.8239395776386955</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9053805989726388</v>
+        <v>0.906765594700311</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>972</v>
@@ -6166,19 +6166,19 @@
         <v>1032831</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1014152</v>
+        <v>1014699</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1048901</v>
+        <v>1049894</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9310223731548396</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9141848886690254</v>
+        <v>0.9146784183274275</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.945508970475887</v>
+        <v>0.9464035126978269</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1201</v>
@@ -6187,19 +6187,19 @@
         <v>1264786</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1241396</v>
+        <v>1243625</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1284585</v>
+        <v>1281956</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9190202904069547</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.902024768203289</v>
+        <v>0.9036442357123771</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9334069564084813</v>
+        <v>0.9314963761929178</v>
       </c>
     </row>
     <row r="35">
@@ -6216,19 +6216,19 @@
         <v>47538</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>36139</v>
+        <v>36177</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>60286</v>
+        <v>60830</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1781244873366572</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1354122912957282</v>
+        <v>0.1355560190612996</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2258895547071245</v>
+        <v>0.2279294012277147</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>144</v>
@@ -6237,19 +6237,19 @@
         <v>155139</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>133442</v>
+        <v>133220</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>183119</v>
+        <v>179044</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.139846311631839</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1202884972917808</v>
+        <v>0.1200886270349971</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1650689063402564</v>
+        <v>0.16139569558679</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>193</v>
@@ -6258,19 +6258,19 @@
         <v>202677</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>177143</v>
+        <v>179818</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>230166</v>
+        <v>233911</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1472692929971639</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.128715648593332</v>
+        <v>0.1306599025582436</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.167243196463061</v>
+        <v>0.1699643496443984</v>
       </c>
     </row>
     <row r="36">
@@ -6287,19 +6287,19 @@
         <v>11439</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6632</v>
+        <v>6665</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>19070</v>
+        <v>20740</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04286257749953709</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02484832638043361</v>
+        <v>0.02497488964025955</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.07145658682355421</v>
+        <v>0.07771361611635476</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>23</v>
@@ -6308,19 +6308,19 @@
         <v>26783</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>17204</v>
+        <v>17332</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>40163</v>
+        <v>40963</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02414286177682128</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01550843541098991</v>
+        <v>0.01562376377723603</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03620427201411805</v>
+        <v>0.03692554959325647</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>35</v>
@@ -6329,19 +6329,19 @@
         <v>38222</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>25674</v>
+        <v>27310</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>52376</v>
+        <v>52737</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02777302696665313</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01865539365190899</v>
+        <v>0.01984428852119064</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03805781085671213</v>
+        <v>0.03831972947369757</v>
       </c>
     </row>
     <row r="37">
@@ -6358,19 +6358,19 @@
         <v>7108</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2872</v>
+        <v>2940</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>14265</v>
+        <v>14434</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02663196609449269</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01075973936939072</v>
+        <v>0.01101424987103951</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05344973096608842</v>
+        <v>0.05408359902254192</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>23</v>
@@ -6379,19 +6379,19 @@
         <v>24207</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>15894</v>
+        <v>15281</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>35634</v>
+        <v>35034</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02182067336318597</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01432695251320487</v>
+        <v>0.01377464934899278</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03212175745293423</v>
+        <v>0.03158056060281058</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>30</v>
@@ -6400,19 +6400,19 @@
         <v>31314</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>21240</v>
+        <v>21585</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>44228</v>
+        <v>45768</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02275368899493974</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01543315014039223</v>
+        <v>0.01568392895542083</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03213683159592587</v>
+        <v>0.03325598877040566</v>
       </c>
     </row>
     <row r="38">
@@ -6432,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>6765</v>
+        <v>5874</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.007248771479978153</v>
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02534923149566102</v>
+        <v>0.02200840000706034</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>9</v>
@@ -6450,19 +6450,19 @@
         <v>9239</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>4178</v>
+        <v>5028</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>16660</v>
+        <v>17382</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.008327892464381165</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.003766295864175207</v>
+        <v>0.004532565614301208</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01501766669215076</v>
+        <v>0.01566849255895965</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>11</v>
@@ -6471,19 +6471,19 @@
         <v>11173</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>6121</v>
+        <v>5622</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>19368</v>
+        <v>20217</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.008118627137320495</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.004447487777607462</v>
+        <v>0.004084898383799699</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01407295482893613</v>
+        <v>0.01468991125603752</v>
       </c>
     </row>
     <row r="39">
@@ -6500,19 +6500,19 @@
         <v>220488</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>206475</v>
+        <v>208294</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>231874</v>
+        <v>232337</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.8261644537860294</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.7736564193373591</v>
+        <v>0.7804712697439931</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.8688252887179174</v>
+        <v>0.8705601591968833</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>872</v>
@@ -6521,19 +6521,19 @@
         <v>931426</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>906224</v>
+        <v>906613</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>954109</v>
+        <v>955390</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.8396133456795346</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.816895858895364</v>
+        <v>0.8172466369719403</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.8600603843180319</v>
+        <v>0.8612156654092485</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1090</v>
@@ -6542,19 +6542,19 @@
         <v>1151914</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1123445</v>
+        <v>1121186</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1176846</v>
+        <v>1178607</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.8370053093227446</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.8163192284857846</v>
+        <v>0.8146776127687846</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.8551215506893476</v>
+        <v>0.8564006464388787</v>
       </c>
     </row>
     <row r="40">
@@ -6575,19 +6575,19 @@
         <v>3126952</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3090460</v>
+        <v>3091348</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>3159124</v>
+        <v>3159697</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.9153818026462589</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.9046994210718715</v>
+        <v>0.9049593048570008</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.9247998116029658</v>
+        <v>0.9249676763047184</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>3074</v>
@@ -6596,19 +6596,19 @@
         <v>3317630</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>3286123</v>
+        <v>3286641</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>3344350</v>
+        <v>3345930</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.9361252461692702</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.927235204554268</v>
+        <v>0.9273812486753769</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.9436648793267614</v>
+        <v>0.9441107507580614</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>6006</v>
@@ -6617,19 +6617,19 @@
         <v>6444581</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>6395732</v>
+        <v>6398937</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>6487301</v>
+        <v>6489983</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.9259442590952068</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.9189257235188959</v>
+        <v>0.919386189403429</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.9320821547817958</v>
+        <v>0.9324675074586358</v>
       </c>
     </row>
     <row r="41">
@@ -6646,19 +6646,19 @@
         <v>408661</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>370863</v>
+        <v>373905</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>448626</v>
+        <v>451879</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1196312487943963</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1085660957438</v>
+        <v>0.1094567611446798</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1313306045594882</v>
+        <v>0.1322826315051286</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>409</v>
@@ -6667,19 +6667,19 @@
         <v>446354</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>407221</v>
+        <v>406046</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>488099</v>
+        <v>488156</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1259463789003561</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1149041931966043</v>
+        <v>0.1145728090010209</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1377252772858748</v>
+        <v>0.137741424916637</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>788</v>
@@ -6688,19 +6688,19 @@
         <v>855016</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>797370</v>
+        <v>793604</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>904036</v>
+        <v>909918</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1228468810803108</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1145645380868261</v>
+        <v>0.1140233984489148</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1298900352405476</v>
+        <v>0.1307351349807528</v>
       </c>
     </row>
     <row r="42">
@@ -6717,19 +6717,19 @@
         <v>143221</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>121552</v>
+        <v>121173</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>164944</v>
+        <v>166394</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.0419263814384221</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.03558295193638527</v>
+        <v>0.03547206489892748</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.04828551404816431</v>
+        <v>0.04871005499783962</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>74</v>
@@ -6738,19 +6738,19 @@
         <v>82684</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>64834</v>
+        <v>66010</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>102946</v>
+        <v>103396</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02333060189716112</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01829398091513892</v>
+        <v>0.01862579928365613</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.02904794547795216</v>
+        <v>0.02917501101881583</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>215</v>
@@ -6759,19 +6759,19 @@
         <v>225905</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>196911</v>
+        <v>198182</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>259298</v>
+        <v>256609</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.03245750461857707</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02829177844006162</v>
+        <v>0.02847442128938813</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03725539047195672</v>
+        <v>0.03686899990973365</v>
       </c>
     </row>
     <row r="43">
@@ -6788,19 +6788,19 @@
         <v>88935</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>70742</v>
+        <v>69068</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>111467</v>
+        <v>111371</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02603484810204348</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02070896119790983</v>
+        <v>0.02021899364334061</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03263067473837285</v>
+        <v>0.03260262179723009</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>55</v>
@@ -6809,19 +6809,19 @@
         <v>60268</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>43576</v>
+        <v>46401</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>77916</v>
+        <v>80012</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.01700556994354539</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01229571354240192</v>
+        <v>0.01309289971227335</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02198535992758979</v>
+        <v>0.02257687083198118</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>132</v>
@@ -6830,19 +6830,19 @@
         <v>149203</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>125761</v>
+        <v>124092</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>177484</v>
+        <v>179100</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02143718536544072</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01806909990017984</v>
+        <v>0.01782935394211937</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02550050042026591</v>
+        <v>0.02573267473369404</v>
       </c>
     </row>
     <row r="44">
@@ -6859,19 +6859,19 @@
         <v>35946</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>25323</v>
+        <v>24823</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>50738</v>
+        <v>49749</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01052281665951217</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.007412917668240072</v>
+        <v>0.007266575254960521</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01485305154434559</v>
+        <v>0.01456355843294064</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>37</v>
@@ -6880,19 +6880,19 @@
         <v>40396</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>28715</v>
+        <v>28373</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>56190</v>
+        <v>54506</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01139839676101184</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.008102518103374284</v>
+        <v>0.008005836871230286</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01585501978652397</v>
+        <v>0.01537986057375652</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>70</v>
@@ -6901,19 +6901,19 @@
         <v>76342</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>60181</v>
+        <v>60596</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>97848</v>
+        <v>97371</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01096865761544585</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.008646691222735642</v>
+        <v>0.008706285987029824</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01405852951385709</v>
+        <v>0.01399008168907511</v>
       </c>
     </row>
     <row r="45">
@@ -6930,19 +6930,19 @@
         <v>2737422</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>2689658</v>
+        <v>2685118</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>2784015</v>
+        <v>2787019</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.8013511422647989</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.7873688503735912</v>
+        <v>0.7860397874136884</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.814990794051492</v>
+        <v>0.8158702249969894</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>2716</v>
@@ -6951,19 +6951,19 @@
         <v>2940092</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>2891979</v>
+        <v>2892439</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>2981616</v>
+        <v>2984169</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.8295966876842249</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.8160206453831802</v>
+        <v>0.8161503799557293</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.8413132749153511</v>
+        <v>0.8420336126187528</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>5281</v>
@@ -6972,19 +6972,19 @@
         <v>5677514</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>5606106</v>
+        <v>5613710</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>5735822</v>
+        <v>5748751</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.8157336310275015</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.805473787800826</v>
+        <v>0.8065663442304052</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.8241112372921354</v>
+        <v>0.8259687804783811</v>
       </c>
     </row>
     <row r="46">
@@ -7247,19 +7247,19 @@
         <v>403209</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>392138</v>
+        <v>391245</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>412114</v>
+        <v>412203</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9396793015120443</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9138785432558448</v>
+        <v>0.9117974866407255</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.960432615728814</v>
+        <v>0.9606398231861754</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>310</v>
@@ -7268,19 +7268,19 @@
         <v>324394</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>313825</v>
+        <v>313591</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>332319</v>
+        <v>332184</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.93470482376119</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9042519928437682</v>
+        <v>0.9035783855145881</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.957539451742109</v>
+        <v>0.9571518100893411</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>683</v>
@@ -7289,19 +7289,19 @@
         <v>727603</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>711512</v>
+        <v>711993</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>738500</v>
+        <v>740387</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9374549585775892</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9167230237711719</v>
+        <v>0.9173430766775532</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9514952463494325</v>
+        <v>0.953926407959204</v>
       </c>
     </row>
     <row r="5">
@@ -7318,19 +7318,19 @@
         <v>67121</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>52643</v>
+        <v>52445</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>83844</v>
+        <v>85786</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1564252384410923</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1226857290691917</v>
+        <v>0.1222231943668278</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1953979451594379</v>
+        <v>0.1999239775994213</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>59</v>
@@ -7339,19 +7339,19 @@
         <v>61120</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>46795</v>
+        <v>47766</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>76461</v>
+        <v>75491</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1761108727947768</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1348343461731713</v>
+        <v>0.1376314454930508</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2203137276721476</v>
+        <v>0.2175196072614281</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>119</v>
@@ -7360,19 +7360,19 @@
         <v>128241</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>108561</v>
+        <v>106912</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>150307</v>
+        <v>148598</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1652276904527359</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1398714856069376</v>
+        <v>0.1377467742229657</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1936576945250865</v>
+        <v>0.1914566247787607</v>
       </c>
     </row>
     <row r="6">
@@ -7389,19 +7389,19 @@
         <v>31484</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21026</v>
+        <v>21494</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42866</v>
+        <v>42900</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07337328618031667</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04900214144762915</v>
+        <v>0.05009257845859436</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09989904834320565</v>
+        <v>0.09997923931620496</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -7410,19 +7410,19 @@
         <v>20729</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13226</v>
+        <v>12900</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31787</v>
+        <v>31761</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05972710034884431</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0381090483494406</v>
+        <v>0.03716992025014021</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0915920895391254</v>
+        <v>0.09151534036676209</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>49</v>
@@ -7431,19 +7431,19 @@
         <v>52212</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>40173</v>
+        <v>39425</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>69346</v>
+        <v>67748</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06727137989853996</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0517596902441189</v>
+        <v>0.05079598414204015</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08934628610176228</v>
+        <v>0.08728730593123349</v>
       </c>
     </row>
     <row r="7">
@@ -7460,19 +7460,19 @@
         <v>7787</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3362</v>
+        <v>3207</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14973</v>
+        <v>15734</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01814671055711729</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007834334169998722</v>
+        <v>0.007472926047204224</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03489391245095326</v>
+        <v>0.0366680189172085</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -7494,19 +7494,19 @@
         <v>7787</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3356</v>
+        <v>3657</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14893</v>
+        <v>16033</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01003238993232549</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004323610986201442</v>
+        <v>0.004712062148624356</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0191883630866286</v>
+        <v>0.02065682324327595</v>
       </c>
     </row>
     <row r="8">
@@ -7523,19 +7523,19 @@
         <v>19601</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12426</v>
+        <v>11450</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29680</v>
+        <v>30062</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04567985614531245</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02895997709323939</v>
+        <v>0.02668521813510278</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06916901127521859</v>
+        <v>0.07006060661704187</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -7544,19 +7544,19 @@
         <v>19274</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10959</v>
+        <v>12610</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29972</v>
+        <v>31927</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05553695542596277</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03157686881118819</v>
+        <v>0.03633314801015144</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08636225665841889</v>
+        <v>0.09199316727240477</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>36</v>
@@ -7565,19 +7565,19 @@
         <v>38875</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>26762</v>
+        <v>28264</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>52969</v>
+        <v>52646</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05008746840880508</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03448014173731247</v>
+        <v>0.03641592552547274</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06824670575031129</v>
+        <v>0.06782970887421626</v>
       </c>
     </row>
     <row r="9">
@@ -7594,19 +7594,19 @@
         <v>385994</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>370491</v>
+        <v>371897</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>396790</v>
+        <v>397521</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.8995594391646837</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8634293142053859</v>
+        <v>0.8667074237787721</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9247195035639938</v>
+        <v>0.9264226334277157</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>299</v>
@@ -7615,19 +7615,19 @@
         <v>314407</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>302666</v>
+        <v>302612</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>324619</v>
+        <v>323999</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.9059272778991641</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8720980334328904</v>
+        <v>0.8719430481803963</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9353534501615356</v>
+        <v>0.9335666428268499</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>656</v>
@@ -7636,19 +7636,19 @@
         <v>700400</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>682529</v>
+        <v>681525</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>716292</v>
+        <v>715561</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9024068249217831</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8793813996185468</v>
+        <v>0.8780872014492268</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9228821918025314</v>
+        <v>0.9219405074235842</v>
       </c>
     </row>
     <row r="10">
@@ -7669,19 +7669,19 @@
         <v>354618</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>343857</v>
+        <v>343515</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>362660</v>
+        <v>363167</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9400646790551347</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.911538397880689</v>
+        <v>0.9106319155169134</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9613837899571698</v>
+        <v>0.9627276705128129</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>333</v>
@@ -7690,19 +7690,19 @@
         <v>352557</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>343731</v>
+        <v>341901</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>360373</v>
+        <v>359720</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9498756376516477</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9260967291882906</v>
+        <v>0.9211656600559298</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9709334409699889</v>
+        <v>0.9691740181966987</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>666</v>
@@ -7711,19 +7711,19 @@
         <v>707175</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>692288</v>
+        <v>692880</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>717788</v>
+        <v>718699</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9449303984417405</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9250382757585095</v>
+        <v>0.9258300500558636</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9591123775931348</v>
+        <v>0.9603294688001405</v>
       </c>
     </row>
     <row r="11">
@@ -7740,19 +7740,19 @@
         <v>51939</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>38759</v>
+        <v>39520</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>66124</v>
+        <v>68547</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1376851474998852</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1027478656160823</v>
+        <v>0.1047640024456146</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1752910041462964</v>
+        <v>0.1817134270968043</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>57</v>
@@ -7761,19 +7761,19 @@
         <v>59661</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>45744</v>
+        <v>46305</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>75106</v>
+        <v>75735</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1607420913680447</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1232457156365249</v>
+        <v>0.1247564616986796</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.202355534614705</v>
+        <v>0.2040497615328478</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>105</v>
@@ -7782,19 +7782,19 @@
         <v>111600</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>92856</v>
+        <v>93084</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>132681</v>
+        <v>131896</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1491201788142627</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1240751250269759</v>
+        <v>0.1243793663836727</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1772896011725249</v>
+        <v>0.1762404274885893</v>
       </c>
     </row>
     <row r="12">
@@ -7811,19 +7811,19 @@
         <v>31108</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21456</v>
+        <v>20195</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>43201</v>
+        <v>41850</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08246505198961077</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05687779495270859</v>
+        <v>0.05353548424374335</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1145222352217937</v>
+        <v>0.1109423531237748</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>24</v>
@@ -7832,19 +7832,19 @@
         <v>25074</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>16565</v>
+        <v>16254</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>35899</v>
+        <v>36410</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06755433581209938</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04462984562327795</v>
+        <v>0.04379311203614456</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09672161101070878</v>
+        <v>0.09809844470665725</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>53</v>
@@ -7853,19 +7853,19 @@
         <v>56182</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>41666</v>
+        <v>41906</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>71590</v>
+        <v>72546</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07507012110091239</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05567379146025462</v>
+        <v>0.05599482867666666</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09565843069021236</v>
+        <v>0.09693595315330217</v>
       </c>
     </row>
     <row r="13">
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5671</v>
+        <v>4798</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002309531961731954</v>
@@ -7894,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01503426585621867</v>
+        <v>0.01272040715986929</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -7906,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6590</v>
+        <v>6087</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005152428547820619</v>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01775449984420747</v>
+        <v>0.01640033609267077</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -7924,19 +7924,19 @@
         <v>2784</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7389</v>
+        <v>7794</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.003719459126032052</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001156327655564793</v>
+        <v>0.001159242276593221</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.009872825084878056</v>
+        <v>0.01041421617729621</v>
       </c>
     </row>
     <row r="14">
@@ -7953,19 +7953,19 @@
         <v>15105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8715</v>
+        <v>8759</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26384</v>
+        <v>24687</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0400429843580823</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02310346136436205</v>
+        <v>0.02321996071794351</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06994300856606414</v>
+        <v>0.06544222764078833</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -7974,19 +7974,19 @@
         <v>12111</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6240</v>
+        <v>6078</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22164</v>
+        <v>21801</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03263043175430089</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01681316661480214</v>
+        <v>0.01637688673144</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05971659117611632</v>
+        <v>0.05873744758020061</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -7995,19 +7995,19 @@
         <v>27216</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17055</v>
+        <v>18402</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>40100</v>
+        <v>39935</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03636674818262092</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02278912650721823</v>
+        <v>0.02458929466588998</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05358181690594139</v>
+        <v>0.05336072714777655</v>
       </c>
     </row>
     <row r="15">
@@ -8024,19 +8024,19 @@
         <v>328677</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>312176</v>
+        <v>313192</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>341132</v>
+        <v>341181</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.8712981260096812</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.827555927959296</v>
+        <v>0.8302490686773444</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9043159526093142</v>
+        <v>0.9044442567334471</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>307</v>
@@ -8045,19 +8045,19 @@
         <v>324266</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>308957</v>
+        <v>310584</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>335659</v>
+        <v>337111</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.8736536482845254</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8324058782708779</v>
+        <v>0.8367895356152378</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9043486201626426</v>
+        <v>0.9082613250360162</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>617</v>
@@ -8066,19 +8066,19 @@
         <v>652943</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>634398</v>
+        <v>633523</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>670124</v>
+        <v>670847</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.8724663411525282</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8476859049788609</v>
+        <v>0.8465162250890312</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.8954237522361342</v>
+        <v>0.8963888247786043</v>
       </c>
     </row>
     <row r="16">
@@ -8099,19 +8099,19 @@
         <v>473047</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>458254</v>
+        <v>458746</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>484663</v>
+        <v>485192</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9082897767354851</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8798856258351561</v>
+        <v>0.8808307903489155</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9305922837955092</v>
+        <v>0.9316078889906618</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>143</v>
@@ -8120,19 +8120,19 @@
         <v>156061</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>148691</v>
+        <v>148802</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>161196</v>
+        <v>161055</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9394322139571849</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8950636588762729</v>
+        <v>0.8957314394328574</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9703416964976667</v>
+        <v>0.9694914187443464</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>599</v>
@@ -8141,19 +8141,19 @@
         <v>629109</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>611003</v>
+        <v>612805</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>642827</v>
+        <v>642869</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.915821022126857</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8894635592968489</v>
+        <v>0.8920868557084253</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9357919170976857</v>
+        <v>0.9358523879453488</v>
       </c>
     </row>
     <row r="17">
@@ -8170,19 +8170,19 @@
         <v>52524</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>40732</v>
+        <v>40018</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>67416</v>
+        <v>69349</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1008497057628864</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0782095388862806</v>
+        <v>0.07683792301010742</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1294440965749359</v>
+        <v>0.1331551348447322</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -8191,19 +8191,19 @@
         <v>16898</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10197</v>
+        <v>9640</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27108</v>
+        <v>26197</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1017181763886344</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06138255437384932</v>
+        <v>0.05803177293681402</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1631818737084436</v>
+        <v>0.1576968196492884</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>67</v>
@@ -8212,19 +8212,19 @@
         <v>69421</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>54820</v>
+        <v>54034</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>86856</v>
+        <v>86600</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1010597299607725</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07980392013978302</v>
+        <v>0.07865932813837422</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1264404143771005</v>
+        <v>0.1260679878300041</v>
       </c>
     </row>
     <row r="18">
@@ -8241,19 +8241,19 @@
         <v>36874</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25526</v>
+        <v>26140</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>50407</v>
+        <v>49359</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07080147220640855</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.049011274615469</v>
+        <v>0.05019055769793229</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09678654355806117</v>
+        <v>0.09477381378262675</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -8262,19 +8262,19 @@
         <v>9556</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4292</v>
+        <v>4704</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17679</v>
+        <v>17531</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05752337950427472</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02583819814572343</v>
+        <v>0.02831847467702216</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1064223040423926</v>
+        <v>0.1055326165033059</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>44</v>
@@ -8283,19 +8283,19 @@
         <v>46430</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>33986</v>
+        <v>34596</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>60746</v>
+        <v>61715</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06759040128870032</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04947502393708842</v>
+        <v>0.05036310822011192</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08843047807688327</v>
+        <v>0.089841533652517</v>
       </c>
     </row>
     <row r="19">
@@ -8312,19 +8312,19 @@
         <v>6852</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2889</v>
+        <v>2859</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14558</v>
+        <v>14557</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.013156347771265</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005546566907492638</v>
+        <v>0.00548929036751729</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02795184074937277</v>
+        <v>0.02795076400012264</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -8336,7 +8336,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6399</v>
+        <v>6945</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01183150100539471</v>
@@ -8345,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03851687144506617</v>
+        <v>0.04180346061980768</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -8354,19 +8354,19 @@
         <v>8817</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3882</v>
+        <v>3982</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17481</v>
+        <v>18373</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01283595710855919</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005651495562924036</v>
+        <v>0.005797316586806842</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02544718460224202</v>
+        <v>0.02674685465206124</v>
       </c>
     </row>
     <row r="20">
@@ -8383,19 +8383,19 @@
         <v>21809</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14407</v>
+        <v>14029</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>32991</v>
+        <v>33335</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04187523477113487</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0276632343850046</v>
+        <v>0.02693665828116631</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06334465419615339</v>
+        <v>0.0640053853061289</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -8404,19 +8404,19 @@
         <v>3876</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11201</v>
+        <v>11358</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02333398714299833</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0061646558523053</v>
+        <v>0.006124637386269689</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06742510715328133</v>
+        <v>0.06836966791901201</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -8425,19 +8425,19 @@
         <v>25685</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>16490</v>
+        <v>17454</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>37194</v>
+        <v>36837</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03739136330161515</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0240058570549267</v>
+        <v>0.02540835680062205</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05414513180779255</v>
+        <v>0.05362552580233601</v>
       </c>
     </row>
     <row r="21">
@@ -8454,19 +8454,19 @@
         <v>445575</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>426658</v>
+        <v>429108</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>461635</v>
+        <v>462853</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8555400882455533</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.819218722336052</v>
+        <v>0.8239235271776918</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8863768252727183</v>
+        <v>0.8887163144276738</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>130</v>
@@ -8475,19 +8475,19 @@
         <v>142323</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>132466</v>
+        <v>132662</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>150459</v>
+        <v>150153</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.856732456564105</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.79739722749581</v>
+        <v>0.7985742431940126</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.9057079963383055</v>
+        <v>0.9038647490492403</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>560</v>
@@ -8496,19 +8496,19 @@
         <v>587898</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>567009</v>
+        <v>567863</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>606022</v>
+        <v>605042</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.8558284413484265</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.8254201993913124</v>
+        <v>0.8266632168470377</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.8822133293650615</v>
+        <v>0.8807865411898688</v>
       </c>
     </row>
     <row r="22">
@@ -8529,19 +8529,19 @@
         <v>1047071</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1027189</v>
+        <v>1024767</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1064880</v>
+        <v>1065087</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9116422299936907</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8943316534728522</v>
+        <v>0.8922229308278914</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9271477618960309</v>
+        <v>0.9273273947466227</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>738</v>
@@ -8550,19 +8550,19 @@
         <v>763965</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>746356</v>
+        <v>747453</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>776998</v>
+        <v>779996</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.925035684050866</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9037145851478174</v>
+        <v>0.9050423918862549</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9408166560115242</v>
+        <v>0.9444466398081067</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1744</v>
@@ -8571,19 +8571,19 @@
         <v>1811036</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1783842</v>
+        <v>1785086</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1832978</v>
+        <v>1834155</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9172445186607737</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9034712668999101</v>
+        <v>0.9041017087285569</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9283577064413426</v>
+        <v>0.9289539227135997</v>
       </c>
     </row>
     <row r="23">
@@ -8600,19 +8600,19 @@
         <v>127926</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>108651</v>
+        <v>108045</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>150356</v>
+        <v>150399</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.111379956387382</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09459819450107475</v>
+        <v>0.09407017892360971</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1309084646564211</v>
+        <v>0.1309462494299335</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>115</v>
@@ -8621,19 +8621,19 @@
         <v>119465</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>100504</v>
+        <v>100795</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>141542</v>
+        <v>141549</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1446522630797316</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1216936562807699</v>
+        <v>0.1220458604331585</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.171384244676899</v>
+        <v>0.1713931025671407</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>235</v>
@@ -8642,19 +8642,19 @@
         <v>247391</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>215947</v>
+        <v>219399</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>281279</v>
+        <v>278463</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1252972824120603</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1093718290616401</v>
+        <v>0.1111201248092443</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1424605925123322</v>
+        <v>0.141034309125818</v>
       </c>
     </row>
     <row r="24">
@@ -8671,19 +8671,19 @@
         <v>87909</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>70578</v>
+        <v>69665</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>107150</v>
+        <v>107566</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07653890707713457</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06144943590072883</v>
+        <v>0.06065430472508904</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09329089875232095</v>
+        <v>0.09365371371226772</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>65</v>
@@ -8692,19 +8692,19 @@
         <v>67442</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>52912</v>
+        <v>51762</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>85403</v>
+        <v>85503</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08166071505267611</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06406801258442499</v>
+        <v>0.06267537118026713</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1034087084545552</v>
+        <v>0.103529573377098</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>149</v>
@@ -8713,19 +8713,19 @@
         <v>155351</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>133003</v>
+        <v>133135</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>182144</v>
+        <v>181613</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07868128548481494</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06736277061496564</v>
+        <v>0.06742964897224478</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09225154222216597</v>
+        <v>0.09198255397772927</v>
       </c>
     </row>
     <row r="25">
@@ -8742,19 +8742,19 @@
         <v>21176</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13636</v>
+        <v>12935</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33802</v>
+        <v>31834</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01843691105202348</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01187247915592962</v>
+        <v>0.01126165413801707</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02942998961911057</v>
+        <v>0.02771675551930114</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -8763,19 +8763,19 @@
         <v>13342</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7272</v>
+        <v>7334</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22090</v>
+        <v>22700</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01615489304296201</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00880521086626228</v>
+        <v>0.008879954225831694</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02674796195298495</v>
+        <v>0.02748596007364491</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>32</v>
@@ -8784,19 +8784,19 @@
         <v>34518</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>23709</v>
+        <v>23865</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>47921</v>
+        <v>50060</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01748237583088721</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01200807180130369</v>
+        <v>0.01208726113767091</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02427098348407286</v>
+        <v>0.02535400634254183</v>
       </c>
     </row>
     <row r="26">
@@ -8813,19 +8813,19 @@
         <v>54194</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>40550</v>
+        <v>41015</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>70020</v>
+        <v>71160</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04718451111609845</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03530563761848392</v>
+        <v>0.03570979240018698</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06096354142355571</v>
+        <v>0.06195641725490792</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>25</v>
@@ -8834,19 +8834,19 @@
         <v>26680</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>17309</v>
+        <v>17047</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>37716</v>
+        <v>40008</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03230505633253022</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02095867314163405</v>
+        <v>0.02064070221217258</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04566746978025841</v>
+        <v>0.04844327717344746</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>76</v>
@@ -8855,19 +8855,19 @@
         <v>80874</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>62944</v>
+        <v>64329</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>100426</v>
+        <v>100650</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04096064977678252</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03187945439541</v>
+        <v>0.03258121294192501</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05086331723525096</v>
+        <v>0.0509765150025103</v>
       </c>
     </row>
     <row r="27">
@@ -8884,19 +8884,19 @@
         <v>949569</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>920292</v>
+        <v>922747</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>972033</v>
+        <v>976404</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8267506329211654</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.80126099023074</v>
+        <v>0.8033982579839787</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8463095167904491</v>
+        <v>0.8501150413313078</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>683</v>
@@ -8905,19 +8905,19 @@
         <v>708631</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>687427</v>
+        <v>688641</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>726486</v>
+        <v>727939</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8580356444888907</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8323604547691563</v>
+        <v>0.8338305458855426</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8796554006541538</v>
+        <v>0.8814138510545427</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1595</v>
@@ -8926,19 +8926,19 @@
         <v>1658200</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1623172</v>
+        <v>1621914</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1689811</v>
+        <v>1690482</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8398367020566719</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.822096118844557</v>
+        <v>0.8214587086523785</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8558469767656155</v>
+        <v>0.8561871412586924</v>
       </c>
     </row>
     <row r="28">
@@ -8959,19 +8959,19 @@
         <v>551083</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>534912</v>
+        <v>534179</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>566451</v>
+        <v>565149</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8903938018185901</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8642654101186785</v>
+        <v>0.8630811259405973</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9152240047326957</v>
+        <v>0.9131195990607071</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>656</v>
@@ -8980,19 +8980,19 @@
         <v>694139</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>681238</v>
+        <v>679376</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>707375</v>
+        <v>706767</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9402563826909849</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9227811068971805</v>
+        <v>0.9202589105882872</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9581859716505291</v>
+        <v>0.9573618436257956</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1187</v>
@@ -9001,19 +9001,19 @@
         <v>1245222</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1225652</v>
+        <v>1224781</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1265262</v>
+        <v>1264030</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9175170667296055</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9030973388745586</v>
+        <v>0.9024556346177504</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9322830323055874</v>
+        <v>0.9313755677475978</v>
       </c>
     </row>
     <row r="29">
@@ -9030,19 +9030,19 @@
         <v>80313</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>63763</v>
+        <v>64192</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>97551</v>
+        <v>99740</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1297629137466484</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1030221995935223</v>
+        <v>0.1037161644560683</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.157614370532594</v>
+        <v>0.1611519376639793</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>88</v>
@@ -9051,19 +9051,19 @@
         <v>90980</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>73198</v>
+        <v>74970</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>108789</v>
+        <v>111182</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1232385246389902</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09915168003785353</v>
+        <v>0.1015517636816584</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1473613396693381</v>
+        <v>0.1506026981806466</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>165</v>
@@ -9072,19 +9072,19 @@
         <v>171293</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>148672</v>
+        <v>147959</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>195422</v>
+        <v>199274</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1262139050300232</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.109546239820258</v>
+        <v>0.109020911290835</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.143993061789718</v>
+        <v>0.1468310283428392</v>
       </c>
     </row>
     <row r="30">
@@ -9101,19 +9101,19 @@
         <v>43949</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>32720</v>
+        <v>31842</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>57358</v>
+        <v>57696</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07100946568234541</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05286540883485543</v>
+        <v>0.0514482282141962</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09267338114822386</v>
+        <v>0.09322035789087912</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>39</v>
@@ -9122,19 +9122,19 @@
         <v>42992</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>30732</v>
+        <v>30921</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>58802</v>
+        <v>58486</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0582360841487728</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04162900559707665</v>
+        <v>0.04188415136562505</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07965101538258092</v>
+        <v>0.07922314076036216</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>81</v>
@@ -9143,19 +9143,19 @@
         <v>86942</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>68943</v>
+        <v>71267</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>104863</v>
+        <v>106426</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06406125311326097</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05079940956465181</v>
+        <v>0.05251144912787452</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07726598725420655</v>
+        <v>0.07841777076911614</v>
       </c>
     </row>
     <row r="31">
@@ -9172,19 +9172,19 @@
         <v>18578</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>11150</v>
+        <v>10554</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>30562</v>
+        <v>29347</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03001714756796047</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01801575070230111</v>
+        <v>0.0170524547415772</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04937969154890237</v>
+        <v>0.04741607317415802</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -9193,19 +9193,19 @@
         <v>5459</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1843</v>
+        <v>1863</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11457</v>
+        <v>11213</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.007394324928089921</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.002496927285203164</v>
+        <v>0.002523726408580095</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01551905784214066</v>
+        <v>0.01518875801247534</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>22</v>
@@ -9214,19 +9214,19 @@
         <v>24037</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>15117</v>
+        <v>15203</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>36240</v>
+        <v>35355</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01771122996882082</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01113855615082199</v>
+        <v>0.01120175489557672</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02670255397930633</v>
+        <v>0.02605048651179565</v>
       </c>
     </row>
     <row r="32">
@@ -9243,19 +9243,19 @@
         <v>17227</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10573</v>
+        <v>9355</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>27154</v>
+        <v>26655</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02783409830363465</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01708304848158926</v>
+        <v>0.01511444339439539</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04387291706343145</v>
+        <v>0.04306766841988678</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>41</v>
@@ -9264,19 +9264,19 @@
         <v>43229</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>31130</v>
+        <v>31151</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>57892</v>
+        <v>56308</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05855590967502438</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04216803603964088</v>
+        <v>0.04219656245869375</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07841837201376126</v>
+        <v>0.07627241944955684</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>57</v>
@@ -9285,19 +9285,19 @@
         <v>60456</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>45730</v>
+        <v>46433</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>76892</v>
+        <v>76976</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04454554431772925</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0336952954546431</v>
+        <v>0.0342135389432707</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05665648527971163</v>
+        <v>0.05671795788139884</v>
       </c>
     </row>
     <row r="33">
@@ -9314,19 +9314,19 @@
         <v>497122</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>476278</v>
+        <v>475482</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>515301</v>
+        <v>517494</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.8032077633698631</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7695299170595968</v>
+        <v>0.768243937649274</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8325790150200084</v>
+        <v>0.8361223403079195</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>599</v>
@@ -9335,19 +9335,19 @@
         <v>636282</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>617293</v>
+        <v>616721</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>654174</v>
+        <v>653777</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.8618861737427175</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.8361639125351893</v>
+        <v>0.8353891460410816</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.8861219675295154</v>
+        <v>0.8855836498240425</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1082</v>
@@ -9356,19 +9356,19 @@
         <v>1133404</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1104294</v>
+        <v>1101575</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1160794</v>
+        <v>1159788</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.8351264896221845</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.8136771784489107</v>
+        <v>0.8116733384627397</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.8553081949920522</v>
+        <v>0.8545664665169102</v>
       </c>
     </row>
     <row r="34">
@@ -9389,19 +9389,19 @@
         <v>241942</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>227384</v>
+        <v>227804</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>253148</v>
+        <v>254516</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8425765499819597</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.7918788073165655</v>
+        <v>0.7933429842924231</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8816037469675959</v>
+        <v>0.8863688661249934</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>923</v>
@@ -9410,19 +9410,19 @@
         <v>1012295</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>995927</v>
+        <v>995391</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1027261</v>
+        <v>1025782</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9374102486005415</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9222532876311361</v>
+        <v>0.9217560667516869</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9512689435082751</v>
+        <v>0.9498994529721417</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1153</v>
@@ -9431,19 +9431,19 @@
         <v>1254237</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1231031</v>
+        <v>1229777</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1272589</v>
+        <v>1273267</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9174903965842504</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9005151525276274</v>
+        <v>0.8995976068180984</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9309149036513572</v>
+        <v>0.9314111785298577</v>
       </c>
     </row>
     <row r="35">
@@ -9460,19 +9460,19 @@
         <v>57928</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>45596</v>
+        <v>45965</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>72957</v>
+        <v>72357</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2017387086287362</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1587914946142827</v>
+        <v>0.1600762426151753</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2540760794432183</v>
+        <v>0.251988292541688</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>114</v>
@@ -9481,19 +9481,19 @@
         <v>121416</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>99536</v>
+        <v>101907</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>145253</v>
+        <v>144672</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.112433860084766</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09217256953418249</v>
+        <v>0.09436825819906419</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1345081962416266</v>
+        <v>0.1339694108163128</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>168</v>
@@ -9502,19 +9502,19 @@
         <v>179344</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>155555</v>
+        <v>154164</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>205724</v>
+        <v>206556</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1311923751827379</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1137901807988182</v>
+        <v>0.1127732734448912</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1504894081732012</v>
+        <v>0.1510982819696788</v>
       </c>
     </row>
     <row r="36">
@@ -9531,19 +9531,19 @@
         <v>19504</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>11639</v>
+        <v>11596</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>29351</v>
+        <v>28621</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0679223812886055</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04053350258904037</v>
+        <v>0.04038380203572206</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1022169737152448</v>
+        <v>0.09967404968463564</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>44</v>
@@ -9552,19 +9552,19 @@
         <v>47431</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>34591</v>
+        <v>35107</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>62408</v>
+        <v>62423</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04392265350716091</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03203207479553771</v>
+        <v>0.03251027591058667</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05779167339938118</v>
+        <v>0.05780564166948651</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>62</v>
@@ -9573,19 +9573,19 @@
         <v>66935</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>52584</v>
+        <v>52957</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>85980</v>
+        <v>85830</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04896380483629377</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.038465706961938</v>
+        <v>0.03873902668185054</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.06289561158333745</v>
+        <v>0.06278587809398324</v>
       </c>
     </row>
     <row r="37">
@@ -9602,19 +9602,19 @@
         <v>9115</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>4082</v>
+        <v>4848</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>16280</v>
+        <v>16486</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03174185187270668</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01421427809667524</v>
+        <v>0.01688333330047041</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05669646538335613</v>
+        <v>0.05741413113218215</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>12</v>
@@ -9623,19 +9623,19 @@
         <v>12553</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>6540</v>
+        <v>7024</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>21995</v>
+        <v>21278</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01162432997370987</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.006056230997605555</v>
+        <v>0.00650440861124011</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02036799139771186</v>
+        <v>0.01970385065687529</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>21</v>
@@ -9644,19 +9644,19 @@
         <v>21667</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>13399</v>
+        <v>13679</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>31145</v>
+        <v>32171</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01585002258087339</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.009801593138114129</v>
+        <v>0.01000639044698923</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0227828639903677</v>
+        <v>0.02353320996392213</v>
       </c>
     </row>
     <row r="38">
@@ -9673,19 +9673,19 @@
         <v>7847</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3166</v>
+        <v>3382</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>14842</v>
+        <v>15606</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.02732707824199479</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01102671101981356</v>
+        <v>0.01177758768305654</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.05168757094974996</v>
+        <v>0.05434761307224917</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>39</v>
@@ -9694,19 +9694,19 @@
         <v>41279</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>29914</v>
+        <v>29643</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>54605</v>
+        <v>55069</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.0382250735677121</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.02770117550216288</v>
+        <v>0.02745013855882247</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.05056545108098778</v>
+        <v>0.05099520227182934</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>46</v>
@@ -9715,19 +9715,19 @@
         <v>49126</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>37773</v>
+        <v>37159</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>64748</v>
+        <v>65384</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.03593594578587121</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.02763157072027829</v>
+        <v>0.02718220958038467</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.04736432346521764</v>
+        <v>0.04782951022934014</v>
       </c>
     </row>
     <row r="39">
@@ -9744,19 +9744,19 @@
         <v>251203</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>239344</v>
+        <v>238131</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>261645</v>
+        <v>260764</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.8748287473465319</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.8335294784285786</v>
+        <v>0.8293049911017693</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.9111958992951101</v>
+        <v>0.908127936122972</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>886</v>
@@ -9765,19 +9765,19 @@
         <v>968127</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>943333</v>
+        <v>945854</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>986001</v>
+        <v>987621</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.8965089492116914</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.8735494868664758</v>
+        <v>0.8758841861509512</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.9130608486750913</v>
+        <v>0.914561091473197</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1123</v>
@@ -9786,19 +9786,19 @@
         <v>1219329</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1195012</v>
+        <v>1193467</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1242186</v>
+        <v>1240772</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.8919550151236174</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.8741663910776939</v>
+        <v>0.8730362533514575</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.9086750984537438</v>
+        <v>0.9076403028148082</v>
       </c>
     </row>
     <row r="40">
@@ -9819,19 +9819,19 @@
         <v>3070970</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3035723</v>
+        <v>3033846</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>3104431</v>
+        <v>3106253</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.908100642077081</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.8976778396874748</v>
+        <v>0.8971227102626079</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.9179951683355938</v>
+        <v>0.9185339083488009</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>3103</v>
@@ -9840,19 +9840,19 @@
         <v>3303411</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>3273494</v>
+        <v>3273682</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>3331522</v>
+        <v>3332627</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.9362496246194258</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.9277705663508349</v>
+        <v>0.9278238210726639</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.9442169935422976</v>
+        <v>0.944530007323646</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>6032</v>
@@ -9861,19 +9861,19 @@
         <v>6374381</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>6326825</v>
+        <v>6325784</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>6421583</v>
+        <v>6418132</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.9224737126194001</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.9155915978207936</v>
+        <v>0.9154409120902068</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.9293046158870336</v>
+        <v>0.9288052181366898</v>
       </c>
     </row>
     <row r="41">
@@ -9890,19 +9890,19 @@
         <v>437750</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>399934</v>
+        <v>397985</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>479497</v>
+        <v>477207</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1294448591372299</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1182622923184939</v>
+        <v>0.1176859951209713</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1417896056245972</v>
+        <v>0.1411123867278993</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>449</v>
@@ -9911,19 +9911,19 @@
         <v>469540</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>430611</v>
+        <v>431045</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>511292</v>
+        <v>509890</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1330764997266205</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1220433554026125</v>
+        <v>0.122166467789916</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1449097752497218</v>
+        <v>0.1445126909736915</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>859</v>
@@ -9932,19 +9932,19 @@
         <v>907290</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>853116</v>
+        <v>848299</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>966416</v>
+        <v>966328</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1312992006324203</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1234594027357176</v>
+        <v>0.1227622262922125</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1398556303301907</v>
+        <v>0.1398429701581932</v>
       </c>
     </row>
     <row r="42">
@@ -9961,19 +9961,19 @@
         <v>250828</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>217539</v>
+        <v>222190</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>281338</v>
+        <v>285517</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.07417106792492231</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.06432737391072617</v>
+        <v>0.06570260955208239</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.08319287435339513</v>
+        <v>0.08442884248089619</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>200</v>
@@ -9982,19 +9982,19 @@
         <v>213224</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>185951</v>
+        <v>184231</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>243360</v>
+        <v>244955</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.06043162479024938</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.05270192502532255</v>
+        <v>0.05221448394805677</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.06897299842679319</v>
+        <v>0.06942481027403749</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>438</v>
@@ -10003,19 +10003,19 @@
         <v>464052</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>425160</v>
+        <v>423916</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>511542</v>
+        <v>510352</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.06715561061346288</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.06152743089379249</v>
+        <v>0.06134729006069687</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.07402822717153879</v>
+        <v>0.07385597201904788</v>
       </c>
     </row>
     <row r="43">
@@ -10032,19 +10032,19 @@
         <v>64378</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>50142</v>
+        <v>48784</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>84213</v>
+        <v>83971</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01903699116693599</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01482708407611062</v>
+        <v>0.01442564657524652</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.02490212714575761</v>
+        <v>0.02483070123408207</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>35</v>
@@ -10053,19 +10053,19 @@
         <v>35232</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>24817</v>
+        <v>25293</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>48299</v>
+        <v>47581</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.009985295067675933</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.007033746486475948</v>
+        <v>0.007168466341522956</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.01368889147933426</v>
+        <v>0.01348542997578964</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>93</v>
@@ -10074,19 +10074,19 @@
         <v>99610</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>79649</v>
+        <v>81199</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>123321</v>
+        <v>121177</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.0144151308078062</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01152650188983418</v>
+        <v>0.01175080230185464</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.01784642949834076</v>
+        <v>0.01753626328397366</v>
       </c>
     </row>
     <row r="44">
@@ -10103,19 +10103,19 @@
         <v>135783</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>111760</v>
+        <v>113652</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>158405</v>
+        <v>161540</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.04015173811646591</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.03304794347771214</v>
+        <v>0.03360758149302311</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.04684101579844614</v>
+        <v>0.04776806872459396</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>136</v>
@@ -10124,19 +10124,19 @@
         <v>146449</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>124476</v>
+        <v>122666</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>171421</v>
+        <v>172476</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.04150645292399532</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.03527874928732468</v>
+        <v>0.03476579595340449</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.04858402403988892</v>
+        <v>0.04888300464567494</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>263</v>
@@ -10145,19 +10145,19 @@
         <v>282232</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>249977</v>
+        <v>252052</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>319497</v>
+        <v>321124</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.04084346512521493</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.03617563461293435</v>
+        <v>0.03647589536902058</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.04623623780693698</v>
+        <v>0.04647178637776175</v>
       </c>
     </row>
     <row r="45">
@@ -10174,19 +10174,19 @@
         <v>2858139</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>2813969</v>
+        <v>2813554</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>2902381</v>
+        <v>2901613</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.8451654354736432</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.8321042544391917</v>
+        <v>0.8319814429084502</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.8582478543307211</v>
+        <v>0.8580210180263722</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>2904</v>
@@ -10195,19 +10195,19 @@
         <v>3094036</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>3053563</v>
+        <v>3049975</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>3134194</v>
+        <v>3128719</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.8769087224277541</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.8654379731055477</v>
+        <v>0.8644210386267636</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.888290316761188</v>
+        <v>0.8867385775842934</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>5633</v>
@@ -10216,19 +10216,19 @@
         <v>5952175</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>5890031</v>
+        <v>5896430</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>6015340</v>
+        <v>6009787</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.8613737833935077</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.852380578754328</v>
+        <v>0.8533066886370063</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.8705147335636666</v>
+        <v>0.8697112644394097</v>
       </c>
     </row>
     <row r="46">
